--- a/data/Canada_production_source_comparison.xlsx
+++ b/data/Canada_production_source_comparison.xlsx
@@ -8,17 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polymtlca0-my.sharepoint.com/personal/marin_pellan_polymtlus_ca/Documents/Desktop/POST_DOC/Project/regional_minerals_sustainability/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="8_{132C2E14-CDAB-4635-86C1-57645DF6437E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{338A8AA1-9AE4-42CB-A566-80BFA30466A6}"/>
+  <xr:revisionPtr revIDLastSave="305" documentId="8_{132C2E14-CDAB-4635-86C1-57645DF6437E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6633B036-7CA3-4B0A-876B-9498216F0412}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A393C3CD-FDE1-4D61-806F-6F47813A9EB8}"/>
+    <workbookView minimized="1" xWindow="2124" yWindow="3672" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{A393C3CD-FDE1-4D61-806F-6F47813A9EB8}"/>
   </bookViews>
   <sheets>
-    <sheet name="USGS" sheetId="1" r:id="rId1"/>
-    <sheet name="NRCAN" sheetId="2" r:id="rId2"/>
-    <sheet name="WMD" sheetId="3" r:id="rId3"/>
+    <sheet name="README" sheetId="5" r:id="rId1"/>
+    <sheet name="EI_USGS" sheetId="4" r:id="rId2"/>
+    <sheet name="EI_WMD" sheetId="6" r:id="rId3"/>
+    <sheet name="USGS" sheetId="1" r:id="rId4"/>
+    <sheet name="NRCAN" sheetId="2" r:id="rId5"/>
+    <sheet name="WMD" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">USGS!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">NRCAN!$A$1:$G$362</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">USGS!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">WMD!$A$1:$D$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2399" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2755" uniqueCount="379">
   <si>
     <t>Raw</t>
   </si>
@@ -829,66 +834,21 @@
     <t>Antimony</t>
   </si>
   <si>
-    <t>Arsenic</t>
-  </si>
-  <si>
-    <t>Asbestos</t>
-  </si>
-  <si>
     <t>Baryte</t>
   </si>
   <si>
-    <t>Bauxite</t>
-  </si>
-  <si>
-    <t>Bentonite</t>
-  </si>
-  <si>
-    <t>Beryllium (conc.)</t>
-  </si>
-  <si>
-    <t>Boron Minerals</t>
-  </si>
-  <si>
-    <t>Chromium (Cr2O3)</t>
-  </si>
-  <si>
     <t>Coking Coal</t>
   </si>
   <si>
     <t>Diamonds (Gem)</t>
   </si>
   <si>
-    <t>Diamonds (Ind)</t>
-  </si>
-  <si>
-    <t>Diatomite</t>
-  </si>
-  <si>
-    <t>Gallium</t>
-  </si>
-  <si>
-    <t>Germanium</t>
-  </si>
-  <si>
     <t>Gypsum and Anhydrite</t>
   </si>
   <si>
     <t>Iron (Fe)</t>
   </si>
   <si>
-    <t>Kaolin (China-Clay)</t>
-  </si>
-  <si>
-    <t>Lithium (Li2O)</t>
-  </si>
-  <si>
-    <t>Manganese</t>
-  </si>
-  <si>
-    <t>Mercury</t>
-  </si>
-  <si>
     <t>Natural Gas</t>
   </si>
   <si>
@@ -898,24 +858,9 @@
     <t>Oil Sands (part of Petroleum)</t>
   </si>
   <si>
-    <t>Oil Shales</t>
-  </si>
-  <si>
-    <t>Perlite</t>
-  </si>
-  <si>
-    <t>Phosphate Rock (P2O5)</t>
-  </si>
-  <si>
     <t>Potash (K2O)</t>
   </si>
   <si>
-    <t>Rare Earths (REO)</t>
-  </si>
-  <si>
-    <t>Rhenium</t>
-  </si>
-  <si>
     <t>Salt (rock, brines, marine)</t>
   </si>
   <si>
@@ -928,28 +873,10 @@
     <t>Talc, Steatite &amp; Pyrophyllite</t>
   </si>
   <si>
-    <t>Tantalum (Ta2O5)</t>
-  </si>
-  <si>
-    <t>Tin</t>
-  </si>
-  <si>
     <t>Titanium (TiO2)</t>
   </si>
   <si>
-    <t>Tungsten (W)</t>
-  </si>
-  <si>
     <t>Uranium (U3O8)</t>
-  </si>
-  <si>
-    <t>Vanadium (V)</t>
-  </si>
-  <si>
-    <t>Vermiculite</t>
-  </si>
-  <si>
-    <t>Zircon</t>
   </si>
   <si>
     <r>
@@ -1459,46 +1386,317 @@
     </r>
   </si>
   <si>
-    <t>LCI source</t>
-  </si>
-  <si>
-    <t>LCI products</t>
-  </si>
-  <si>
-    <t>LCI activities</t>
-  </si>
-  <si>
-    <t>LCI location</t>
-  </si>
-  <si>
-    <t>EI</t>
-  </si>
-  <si>
-    <t>Antimony production</t>
-  </si>
-  <si>
-    <t>ROW</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
-    <t>Corresponds to refinery, not mining as my understanding</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>CA-QC</t>
   </si>
   <si>
     <t>cadmium production, primary</t>
   </si>
   <si>
-    <t>By-production from zinc. Corresponds to up to refinery, not mining as my understanding</t>
-  </si>
-  <si>
-    <t>Quality for assessment</t>
+    <t xml:space="preserve">Commodity </t>
+  </si>
+  <si>
+    <t>EI products</t>
+  </si>
+  <si>
+    <t>EI activities</t>
+  </si>
+  <si>
+    <t>Regioinvent activities</t>
+  </si>
+  <si>
+    <t>Regioinvent location</t>
+  </si>
+  <si>
+    <t>Antinomy production</t>
+  </si>
+  <si>
+    <t>RoW</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This activity represents the production of antimony from concentrated stibnite. The dataset approximates metallic antimony and is not to be used when antimony is used as flame retardant (as an oxide) or when it is a substantial part of the system modelled. Antimony is for example used for applications such as a hardener for lead (e.g. in lead-acid batteries, rolled or extruded lead), as a polymerization catalyst in plastic manufacturing, and flame-retardants in plastics. This dataset is a copy of the dataset for China, which produces more than 80% of the global antimony.
+Due to lack of information about the production of antimony, this dataset is mainly approximated with data from the smelting process of lead (Classen et al., 2009). This dataset should not be used if its relative importance is high in the product system that is modelled. For more details about the origin of the data, refer to the Sampling Procedure and exchange comments.
+Geography:  The model represents global Antimony production and is a copy of the dataset for China. China produces more than 80% of the global Antimony.
+Technology:  The data represent a mixture of blast furnace, rotary kiln and electrowinning process. It is approximated from lead smelting. See Classen et al. (2009) part XVI </t>
+  </si>
+  <si>
+    <t>Does not represent only mining</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Could not find data</t>
+  </si>
+  <si>
+    <t>cadmium</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>This dataset describes the primary production of 1 kg of cadmium metal (99.9%). As roughly 70% of primary cadmium is produced as by-product by companies that produce refined zinc (in the activity "primary zinc production from concentrate"), this dataset represents the remaining 30% of production of refined cadmium.
+No secondary sources of cadmium from post consumer scrap are considered. Only the most important source is taken into account: the cadmium sludges from hydrometallurgical zinc operations (modelled in the activity "primary zinc production from concentrate").
+For the use in applications where cadmium is a major constituent – e.g. in NiCd battery systems – the dataset should be complemented with additional specific emission factors and the secondary production process.
+Geography:  This dataset is meant to represent the average global production of primary cadmium from cadmium sludge.
+Technology:  Cadmium sludge formed in hydrometallurgical zinc operations by purification of zinc solution, via subsequent purification and oxidation of the sponge. Cadmium cathodes are formed by electrowinning. Other sources from pyrometallurgical zinc wastes and post consumer scrap (batteries) are disregarded.
+OXIDATION &amp; PURIFICATION
+Cadmium is extracted by oxidizing the enriched starting materials solutions, remnants of hydrometallurgical zinc refining. In order to oxidize the cadmium, air is blown in . Cadmium is precipitated from the solution as a metal sponge by reduction with zinc dust. The precipitated sponge contains 90 % cadmium and only 2.5 % zinc. No heat is used for drying.
+ELECTROWINNING
+The cadmium sponge is precipitated directly in the tank with the electrolytic acid. The anode consists of lead, which does not dissolve, whereas the cathode is aluminum sheet. The current yield is ca. 93 %; the energy consumption is 1250 kWh per tonne of cadmium cathode sheet deposited. Typical impurity levels in electrolytic cadmium sheet are 5 – 10 ppm Cu, 15 – 20 ppm Pb, 5 – 10 ppm Tl, and 5 ppm Zn. The zinc dust used for cementation of the cadmium sponge is recovered later in the sludge of the electrolysis and will be returned into the zinc cycle.</t>
+  </si>
+  <si>
+    <t>Does not seem to represent only mining</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Title of the article</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Authors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Affiliations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Journal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+  </si>
+  <si>
+    <t>TAB_NAME</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>SOURCE</t>
+  </si>
+  <si>
+    <t>USGS</t>
+  </si>
+  <si>
+    <t>NRCAN</t>
+  </si>
+  <si>
+    <t>WMD</t>
+  </si>
+  <si>
+    <t>Corresponds to the USGS Mineral Yearbook. 2019 reference year.</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>metr. t</t>
+  </si>
+  <si>
+    <t>ct</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>Mio m3</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>Consumption market for antimony</t>
+  </si>
+  <si>
+    <t>Consumption market for cadmium</t>
+  </si>
+  <si>
+    <t>Consumption market for indium</t>
+  </si>
+  <si>
+    <t>Consumption market for lead</t>
+  </si>
+  <si>
+    <t>Consumption market for molybdenum</t>
+  </si>
+  <si>
+    <t>Consumption market for palladium</t>
+  </si>
+  <si>
+    <t>Consumption market for platinum</t>
+  </si>
+  <si>
+    <t>Cobalt oxide</t>
+  </si>
+  <si>
+    <t>Consumption market for cobalt oxide</t>
+  </si>
+  <si>
+    <t>Cobalt oxide is indicated in USGS Mineral Yearbook for Canada (for refinery)</t>
+  </si>
+  <si>
+    <t>Copper, cathode</t>
+  </si>
+  <si>
+    <t>Consumption market for copper, cathode</t>
+  </si>
+  <si>
+    <t>Fluorspar, 97% purity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consumption market for gold </t>
+  </si>
+  <si>
+    <t>Consumption market for fluorspar, 97% purity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consumption market for graphite </t>
+  </si>
+  <si>
+    <t>Consumption market for rhodium</t>
+  </si>
+  <si>
+    <t>Sulfide ore is indicated for USGS Mineral Yearbook for Canada</t>
+  </si>
+  <si>
+    <t>Nickel, class 1</t>
+  </si>
+  <si>
+    <t>Consumption market for nickel, class 1</t>
+  </si>
+  <si>
+    <t>Not sure it is the same thing</t>
+  </si>
+  <si>
+    <t>consumption market for ferroniobium, 66% Nb</t>
+  </si>
+  <si>
+    <t>ferroniobium, 66% Nb</t>
+  </si>
+  <si>
+    <t>Consumption market for selenium</t>
+  </si>
+  <si>
+    <t>Consumption market for silver</t>
+  </si>
+  <si>
+    <t>Potash salt</t>
+  </si>
+  <si>
+    <t>Consumption market for potash salt</t>
+  </si>
+  <si>
+    <t>Consumption market for zinc</t>
+  </si>
+  <si>
+    <t>Consumption market for tellurium, semiconductor-grade</t>
+  </si>
+  <si>
+    <t>Tellurium, semiconductor-grade</t>
+  </si>
+  <si>
+    <t>Consumption market for titanium</t>
+  </si>
+  <si>
+    <t>Consumption market for uranium hexafluoride</t>
+  </si>
+  <si>
+    <t>Uranium hexafluoride</t>
+  </si>
+  <si>
+    <t>consumption market for aluminium, primary, ingot</t>
+  </si>
+  <si>
+    <t>aluminium, primary, ingot</t>
   </si>
 </sst>
 </file>
@@ -1569,7 +1767,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1579,6 +1777,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1658,7 +1862,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1760,18 +1964,6 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1799,7 +1991,7 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1817,21 +2009,6 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1841,6 +2018,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{71E3227F-28E1-4468-BCB0-556EF50904D2}"/>
@@ -1857,6 +2041,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2175,11 +2363,1488 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CCF9F82-5877-4292-A9B9-FF0E47CFBC75}">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>332</v>
+      </c>
+      <c r="B8" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>334</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FF1A6A-1806-4FE5-864B-7555365E652F}">
+  <dimension ref="A1:I96"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D4" t="s">
+        <v>313</v>
+      </c>
+      <c r="E4" t="s">
+        <v>314</v>
+      </c>
+      <c r="F4" t="s">
+        <v>313</v>
+      </c>
+      <c r="G4" t="s">
+        <v>315</v>
+      </c>
+      <c r="H4" t="s">
+        <v>318</v>
+      </c>
+      <c r="I4" s="53" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="23"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>319</v>
+      </c>
+      <c r="D6" t="s">
+        <v>319</v>
+      </c>
+      <c r="E6" t="s">
+        <v>319</v>
+      </c>
+      <c r="F6" t="s">
+        <v>319</v>
+      </c>
+      <c r="G6" t="s">
+        <v>319</v>
+      </c>
+      <c r="H6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>321</v>
+      </c>
+      <c r="D7" t="s">
+        <v>307</v>
+      </c>
+      <c r="E7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F7" t="s">
+        <v>307</v>
+      </c>
+      <c r="G7" t="s">
+        <v>322</v>
+      </c>
+      <c r="H7" t="s">
+        <v>324</v>
+      </c>
+      <c r="I7" s="53" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>321</v>
+      </c>
+      <c r="D8" t="s">
+        <v>307</v>
+      </c>
+      <c r="E8" t="s">
+        <v>306</v>
+      </c>
+      <c r="F8" t="s">
+        <v>307</v>
+      </c>
+      <c r="G8" t="s">
+        <v>322</v>
+      </c>
+      <c r="H8" t="s">
+        <v>324</v>
+      </c>
+      <c r="I8" s="53" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="23"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="4"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="4"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" s="23"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" s="23"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" s="43"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="44" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="B48" s="23"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="B50" s="23"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="B51" s="23"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="B53" s="23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" s="44" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="B57" s="23"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="B59" s="23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B60" s="23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B61" s="23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B62" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B63" s="23" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B64" s="23" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B65" s="23" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B66" s="23" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B67" s="23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B68" s="23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B69" s="23" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B70" s="23" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B71" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B72" s="23" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B73" s="23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="B79" s="23"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="B80" s="23"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="B81" s="23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="B86" s="23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B87" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B88" s="23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B89" s="23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B90" s="23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F42F7758-0925-4625-9E60-CDECB9B92682}">
+  <dimension ref="A1:F38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>342</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>378</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>377</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>322</v>
+      </c>
+      <c r="E2" s="56" t="s">
+        <v>339</v>
+      </c>
+      <c r="F2" s="56"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D3" t="s">
+        <v>322</v>
+      </c>
+      <c r="E3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C4" t="s">
+        <v>319</v>
+      </c>
+      <c r="D4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>345</v>
+      </c>
+      <c r="D5" t="s">
+        <v>322</v>
+      </c>
+      <c r="E5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>351</v>
+      </c>
+      <c r="C6" t="s">
+        <v>352</v>
+      </c>
+      <c r="D6" t="s">
+        <v>322</v>
+      </c>
+      <c r="E6" t="s">
+        <v>339</v>
+      </c>
+      <c r="F6" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="54" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>354</v>
+      </c>
+      <c r="C8" t="s">
+        <v>355</v>
+      </c>
+      <c r="D8" t="s">
+        <v>322</v>
+      </c>
+      <c r="E8" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B9" t="s">
+        <v>319</v>
+      </c>
+      <c r="C9" t="s">
+        <v>319</v>
+      </c>
+      <c r="D9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" t="s">
+        <v>356</v>
+      </c>
+      <c r="C10" t="s">
+        <v>358</v>
+      </c>
+      <c r="D10" t="s">
+        <v>322</v>
+      </c>
+      <c r="E10" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>357</v>
+      </c>
+      <c r="D11" t="s">
+        <v>322</v>
+      </c>
+      <c r="E11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" t="s">
+        <v>359</v>
+      </c>
+      <c r="D12" t="s">
+        <v>322</v>
+      </c>
+      <c r="E12" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="54" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>346</v>
+      </c>
+      <c r="D14" t="s">
+        <v>322</v>
+      </c>
+      <c r="E14" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>266</v>
+      </c>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" t="s">
+        <v>347</v>
+      </c>
+      <c r="D16" t="s">
+        <v>322</v>
+      </c>
+      <c r="E16" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="54" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" t="s">
+        <v>319</v>
+      </c>
+      <c r="C18" t="s">
+        <v>319</v>
+      </c>
+      <c r="D18" t="s">
+        <v>319</v>
+      </c>
+      <c r="E18" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" t="s">
+        <v>348</v>
+      </c>
+      <c r="D19" t="s">
+        <v>322</v>
+      </c>
+      <c r="E19" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="54" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" t="s">
+        <v>362</v>
+      </c>
+      <c r="C21" t="s">
+        <v>363</v>
+      </c>
+      <c r="D21" t="s">
+        <v>322</v>
+      </c>
+      <c r="E21" t="s">
+        <v>339</v>
+      </c>
+      <c r="F21" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>268</v>
+      </c>
+      <c r="B22" t="s">
+        <v>366</v>
+      </c>
+      <c r="C22" t="s">
+        <v>365</v>
+      </c>
+      <c r="D22" t="s">
+        <v>322</v>
+      </c>
+      <c r="E22" t="s">
+        <v>339</v>
+      </c>
+      <c r="F22" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="54" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" t="s">
+        <v>349</v>
+      </c>
+      <c r="D24" t="s">
+        <v>322</v>
+      </c>
+      <c r="E24" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="54" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" t="s">
+        <v>350</v>
+      </c>
+      <c r="D26" t="s">
+        <v>322</v>
+      </c>
+      <c r="E26" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="57" t="s">
+        <v>270</v>
+      </c>
+      <c r="B27" s="57" t="s">
+        <v>369</v>
+      </c>
+      <c r="C27" s="57" t="s">
+        <v>370</v>
+      </c>
+      <c r="D27" s="57" t="s">
+        <v>322</v>
+      </c>
+      <c r="E27" s="57" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="57" t="s">
+        <v>360</v>
+      </c>
+      <c r="D28" s="57" t="s">
+        <v>322</v>
+      </c>
+      <c r="E28" s="57" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="54" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="57" t="s">
+        <v>367</v>
+      </c>
+      <c r="D30" s="57" t="s">
+        <v>322</v>
+      </c>
+      <c r="E30" s="57" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="57" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="54" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="54" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="54" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" t="s">
+        <v>373</v>
+      </c>
+      <c r="C35" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>275</v>
+      </c>
+      <c r="B36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" t="s">
+        <v>374</v>
+      </c>
+      <c r="D36" t="s">
+        <v>322</v>
+      </c>
+      <c r="E36" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>276</v>
+      </c>
+      <c r="B37" t="s">
+        <v>376</v>
+      </c>
+      <c r="C37" t="s">
+        <v>375</v>
+      </c>
+      <c r="D37" t="s">
+        <v>322</v>
+      </c>
+      <c r="E37" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" t="s">
+        <v>371</v>
+      </c>
+      <c r="D38" t="s">
+        <v>322</v>
+      </c>
+      <c r="E38" t="s">
+        <v>339</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD0C264-FF60-47D2-AFC9-12502705E0F7}">
-  <dimension ref="A1:Q108"/>
+  <dimension ref="A1:K108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2189,67 +3854,45 @@
     <col min="3" max="3" width="42" style="20" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.77734375" style="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.33203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="17.109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="16.5546875" style="20" customWidth="1"/>
-    <col min="12" max="16" width="9.109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="10" style="7"/>
+    <col min="6" max="10" width="9.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="59" t="s">
-        <v>331</v>
-      </c>
-      <c r="G1" s="59" t="s">
-        <v>332</v>
-      </c>
-      <c r="H1" s="59" t="s">
-        <v>333</v>
-      </c>
-      <c r="I1" s="59" t="s">
-        <v>334</v>
-      </c>
-      <c r="J1" s="59" t="s">
-        <v>338</v>
-      </c>
-      <c r="K1" s="59" t="s">
-        <v>344</v>
-      </c>
-      <c r="L1" s="60">
+      <c r="F1" s="51">
         <v>2015</v>
       </c>
-      <c r="M1" s="60">
+      <c r="G1" s="51">
         <v>2016</v>
       </c>
-      <c r="N1" s="60">
+      <c r="H1" s="51">
         <v>2017</v>
       </c>
-      <c r="O1" s="60">
+      <c r="I1" s="51">
         <v>2018</v>
       </c>
-      <c r="P1" s="60">
+      <c r="J1" s="51">
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>5</v>
@@ -2263,29 +3906,23 @@
       <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="6">
+      <c r="F2" s="6">
         <v>1560932</v>
       </c>
-      <c r="M2" s="6">
+      <c r="G2" s="6">
         <v>1566467</v>
       </c>
-      <c r="N2" s="6">
+      <c r="H2" s="6">
         <v>1570000</v>
       </c>
-      <c r="O2" s="6">
+      <c r="I2" s="6">
         <v>1568000</v>
       </c>
-      <c r="P2" s="6">
+      <c r="J2" s="6">
         <v>1522000</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -2301,29 +3938,23 @@
       <c r="E3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="6">
+      <c r="F3" s="6">
         <v>2880035</v>
       </c>
-      <c r="M3" s="6">
+      <c r="G3" s="6">
         <v>3208888</v>
       </c>
-      <c r="N3" s="6">
+      <c r="H3" s="6">
         <v>3211882</v>
       </c>
-      <c r="O3" s="6">
+      <c r="I3" s="6">
         <v>2923204</v>
       </c>
-      <c r="P3" s="6">
+      <c r="J3" s="6">
         <v>2853771</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
@@ -2339,41 +3970,25 @@
       <c r="E4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="54" t="s">
-        <v>335</v>
-      </c>
-      <c r="G4" s="54" t="s">
-        <v>261</v>
-      </c>
-      <c r="H4" s="54" t="s">
-        <v>336</v>
-      </c>
-      <c r="I4" s="54" t="s">
-        <v>337</v>
-      </c>
-      <c r="J4" s="54" t="s">
-        <v>339</v>
-      </c>
-      <c r="K4" s="54"/>
-      <c r="L4" s="6">
+      <c r="F4" s="6">
         <v>1</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="6">
+      <c r="H4" s="6">
         <v>1</v>
       </c>
-      <c r="O4" s="6">
+      <c r="I4" s="6">
         <v>5</v>
       </c>
-      <c r="P4" s="6">
+      <c r="J4" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="B5" s="23" t="s">
         <v>95</v>
@@ -2385,29 +4000,23 @@
       <c r="E5" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="25">
+      <c r="F5" s="25">
         <v>42000</v>
       </c>
-      <c r="M5" s="25">
+      <c r="G5" s="25">
         <v>20000</v>
       </c>
-      <c r="N5" s="25">
+      <c r="H5" s="25">
         <v>50000</v>
       </c>
-      <c r="O5" s="25">
+      <c r="I5" s="25">
         <v>40000</v>
       </c>
-      <c r="P5" s="25">
+      <c r="J5" s="25">
         <v>40000</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>14</v>
       </c>
@@ -2423,39 +4032,23 @@
       <c r="E6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="54" t="s">
-        <v>340</v>
-      </c>
-      <c r="G6" s="54" t="s">
-        <v>340</v>
-      </c>
-      <c r="H6" s="54" t="s">
-        <v>340</v>
-      </c>
-      <c r="I6" s="54" t="s">
-        <v>340</v>
-      </c>
-      <c r="J6" s="54" t="s">
-        <v>340</v>
-      </c>
-      <c r="K6" s="54"/>
-      <c r="L6" s="6">
+      <c r="F6" s="6">
         <v>2</v>
       </c>
-      <c r="M6" s="6">
+      <c r="G6" s="6">
         <v>2</v>
       </c>
-      <c r="N6" s="6">
+      <c r="H6" s="6">
         <v>4</v>
       </c>
-      <c r="O6" s="6">
+      <c r="I6" s="6">
         <v>5</v>
       </c>
-      <c r="P6" s="6">
+      <c r="J6" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -2471,35 +4064,23 @@
       <c r="E7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54" t="s">
-        <v>342</v>
-      </c>
-      <c r="I7" s="54" t="s">
-        <v>341</v>
-      </c>
-      <c r="J7" s="54" t="s">
-        <v>343</v>
-      </c>
-      <c r="K7" s="54"/>
-      <c r="L7" s="6">
+      <c r="F7" s="6">
         <v>68</v>
       </c>
-      <c r="M7" s="6">
+      <c r="G7" s="6">
         <v>60</v>
       </c>
-      <c r="N7" s="6">
+      <c r="H7" s="6">
         <v>158</v>
       </c>
-      <c r="O7" s="6">
+      <c r="I7" s="6">
         <v>148</v>
       </c>
-      <c r="P7" s="6">
+      <c r="J7" s="6">
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
@@ -2515,35 +4096,23 @@
       <c r="E8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54" t="s">
-        <v>342</v>
-      </c>
-      <c r="I8" s="54" t="s">
-        <v>341</v>
-      </c>
-      <c r="J8" s="54" t="s">
-        <v>343</v>
-      </c>
-      <c r="K8" s="54"/>
-      <c r="L8" s="6">
+      <c r="F8" s="6">
         <v>1159</v>
       </c>
-      <c r="M8" s="6">
+      <c r="G8" s="6">
         <v>2305</v>
       </c>
-      <c r="N8" s="6">
+      <c r="H8" s="6">
         <v>1802</v>
       </c>
-      <c r="O8" s="6">
+      <c r="I8" s="6">
         <v>1857</v>
       </c>
-      <c r="P8" s="6">
+      <c r="J8" s="6">
         <v>1803</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
         <v>97</v>
       </c>
@@ -2559,36 +4128,30 @@
       <c r="E9" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="25">
+      <c r="F9" s="25">
         <v>11541</v>
       </c>
-      <c r="M9" s="25">
+      <c r="G9" s="25">
         <v>11383</v>
       </c>
-      <c r="N9" s="25">
+      <c r="H9" s="25">
         <v>12412</v>
       </c>
-      <c r="O9" s="25">
+      <c r="I9" s="25">
         <v>13184</v>
       </c>
-      <c r="P9" s="25">
+      <c r="J9" s="25">
         <v>13000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>99</v>
       </c>
       <c r="B10" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="46" t="s">
         <v>99</v>
       </c>
       <c r="D10" s="23" t="s">
@@ -2597,29 +4160,23 @@
       <c r="E10" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="25">
+      <c r="F10" s="25">
         <v>12167</v>
       </c>
-      <c r="M10" s="25">
+      <c r="G10" s="25">
         <v>11693</v>
       </c>
-      <c r="N10" s="25">
+      <c r="H10" s="25">
         <v>12706</v>
       </c>
-      <c r="O10" s="25">
+      <c r="I10" s="25">
         <v>13554</v>
       </c>
-      <c r="P10" s="25">
+      <c r="J10" s="25">
         <v>13200</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
         <v>134</v>
       </c>
@@ -2635,29 +4192,23 @@
       <c r="E11" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="25">
+      <c r="F11" s="25">
         <v>4340</v>
       </c>
-      <c r="M11" s="25">
+      <c r="G11" s="25">
         <v>4290</v>
       </c>
-      <c r="N11" s="25">
+      <c r="H11" s="25">
         <v>4250</v>
       </c>
-      <c r="O11" s="25">
+      <c r="I11" s="25">
         <v>3800</v>
       </c>
-      <c r="P11" s="25">
+      <c r="J11" s="25">
         <v>3630</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
         <v>137</v>
       </c>
@@ -2673,29 +4224,23 @@
       <c r="E12" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="25">
+      <c r="F12" s="25">
         <v>8060</v>
       </c>
-      <c r="M12" s="25">
+      <c r="G12" s="25">
         <v>7970</v>
       </c>
-      <c r="N12" s="25">
+      <c r="H12" s="25">
         <v>7900</v>
       </c>
-      <c r="O12" s="25">
+      <c r="I12" s="25">
         <v>7060</v>
       </c>
-      <c r="P12" s="25">
+      <c r="J12" s="25">
         <v>6730</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
         <v>138</v>
       </c>
@@ -2711,29 +4256,23 @@
       <c r="E13" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="52">
+      <c r="F13" s="48">
         <v>27900</v>
       </c>
-      <c r="M13" s="52">
+      <c r="G13" s="48">
         <v>27600</v>
       </c>
-      <c r="N13" s="52">
+      <c r="H13" s="48">
         <v>27300</v>
       </c>
-      <c r="O13" s="52">
+      <c r="I13" s="48">
         <v>24400</v>
       </c>
-      <c r="P13" s="52">
+      <c r="J13" s="48">
         <v>23300</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
         <v>139</v>
       </c>
@@ -2749,29 +4288,23 @@
       <c r="E14" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="31">
+      <c r="F14" s="31">
         <v>21700</v>
       </c>
-      <c r="M14" s="31">
+      <c r="G14" s="31">
         <v>21500</v>
       </c>
-      <c r="N14" s="31">
+      <c r="H14" s="31">
         <v>21300</v>
       </c>
-      <c r="O14" s="31">
+      <c r="I14" s="31">
         <v>19000</v>
       </c>
-      <c r="P14" s="31">
+      <c r="J14" s="31">
         <v>18100</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>29</v>
       </c>
@@ -2787,31 +4320,25 @@
       <c r="E15" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="32">
+      <c r="F15" s="32">
         <v>62000</v>
       </c>
-      <c r="M15" s="32">
+      <c r="G15" s="32">
         <v>61300</v>
       </c>
-      <c r="N15" s="32">
+      <c r="H15" s="32">
         <v>60800</v>
       </c>
-      <c r="O15" s="32">
+      <c r="I15" s="32">
         <v>54300</v>
       </c>
-      <c r="P15" s="32">
+      <c r="J15" s="32">
         <v>51800</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>20</v>
@@ -2825,29 +4352,23 @@
       <c r="E16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="14">
+      <c r="F16" s="14">
         <v>4339</v>
       </c>
-      <c r="M16" s="14">
+      <c r="G16" s="14">
         <v>4216</v>
       </c>
-      <c r="N16" s="14">
+      <c r="H16" s="14">
         <v>3704</v>
       </c>
-      <c r="O16" s="14">
+      <c r="I16" s="14">
         <v>3279</v>
       </c>
-      <c r="P16" s="14">
+      <c r="J16" s="14">
         <v>3336</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
@@ -2863,33 +4384,27 @@
       <c r="E17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="6">
+      <c r="F17" s="6">
         <v>6126</v>
       </c>
-      <c r="M17" s="6">
+      <c r="G17" s="6">
         <v>6302</v>
       </c>
-      <c r="N17" s="6">
+      <c r="H17" s="6">
         <v>6355</v>
       </c>
-      <c r="O17" s="6">
+      <c r="I17" s="6">
         <v>6349</v>
       </c>
-      <c r="P17" s="6">
+      <c r="J17" s="6">
         <v>6075</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="44" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -2901,33 +4416,27 @@
       <c r="E18" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="6">
+      <c r="F18" s="6">
         <v>714647</v>
       </c>
-      <c r="M18" s="6">
+      <c r="G18" s="6">
         <v>693059</v>
       </c>
-      <c r="N18" s="6">
+      <c r="H18" s="6">
         <v>594994</v>
       </c>
-      <c r="O18" s="6">
+      <c r="I18" s="6">
         <v>548011</v>
       </c>
-      <c r="P18" s="6">
+      <c r="J18" s="6">
         <v>572705</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="44" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -2939,29 +4448,23 @@
       <c r="E19" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="6">
+      <c r="F19" s="6">
         <v>281416</v>
       </c>
-      <c r="M19" s="6">
+      <c r="G19" s="6">
         <v>304349</v>
       </c>
-      <c r="N19" s="6">
+      <c r="H19" s="6">
         <v>289400</v>
       </c>
-      <c r="O19" s="6">
+      <c r="I19" s="6">
         <v>290100</v>
       </c>
-      <c r="P19" s="6">
+      <c r="J19" s="6">
         <v>290000</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>27</v>
       </c>
@@ -2977,29 +4480,23 @@
       <c r="E20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="6">
+      <c r="F20" s="6">
         <v>28713</v>
       </c>
-      <c r="M20" s="6">
+      <c r="G20" s="6">
         <v>29165</v>
       </c>
-      <c r="N20" s="6">
+      <c r="H20" s="6">
         <v>31000</v>
       </c>
-      <c r="O20" s="6">
+      <c r="I20" s="6">
         <v>30000</v>
       </c>
-      <c r="P20" s="6">
+      <c r="J20" s="6">
         <v>30000</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>29</v>
       </c>
@@ -3015,29 +4512,23 @@
       <c r="E21" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="17">
+      <c r="F21" s="17">
         <v>310000</v>
       </c>
-      <c r="M21" s="17">
+      <c r="G21" s="17">
         <v>334000</v>
       </c>
-      <c r="N21" s="17">
+      <c r="H21" s="17">
         <v>320000</v>
       </c>
-      <c r="O21" s="17">
+      <c r="I21" s="17">
         <v>320000</v>
       </c>
-      <c r="P21" s="17">
+      <c r="J21" s="17">
         <v>320000</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>31</v>
       </c>
@@ -3053,29 +4544,23 @@
       <c r="E22" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="17">
+      <c r="F22" s="17">
         <v>500</v>
       </c>
-      <c r="M22" s="53" t="s">
+      <c r="G22" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="N22" s="53" t="s">
+      <c r="H22" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="O22" s="53" t="s">
+      <c r="I22" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="P22" s="53" t="s">
+      <c r="J22" s="49" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>33</v>
       </c>
@@ -3091,29 +4576,23 @@
       <c r="E23" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="17">
+      <c r="F23" s="17">
         <v>301300</v>
       </c>
-      <c r="M23" s="17">
+      <c r="G23" s="17">
         <v>284400</v>
       </c>
-      <c r="N23" s="17">
+      <c r="H23" s="17">
         <v>300700</v>
       </c>
-      <c r="O23" s="17">
+      <c r="I23" s="17">
         <v>259300</v>
       </c>
-      <c r="P23" s="17">
+      <c r="J23" s="17">
         <v>253100</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>27</v>
       </c>
@@ -3129,29 +4608,23 @@
       <c r="E24" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="17">
+      <c r="F24" s="17">
         <v>29100</v>
       </c>
-      <c r="M24" s="17">
+      <c r="G24" s="17">
         <v>30000</v>
       </c>
-      <c r="N24" s="17">
+      <c r="H24" s="17">
         <v>29700</v>
       </c>
-      <c r="O24" s="17">
+      <c r="I24" s="17">
         <v>32000</v>
       </c>
-      <c r="P24" s="17">
+      <c r="J24" s="17">
         <v>28100</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>29</v>
       </c>
@@ -3167,29 +4640,23 @@
       <c r="E25" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="15">
+      <c r="F25" s="15">
         <v>330000</v>
       </c>
-      <c r="M25" s="6">
+      <c r="G25" s="6">
         <v>314000</v>
       </c>
-      <c r="N25" s="6">
+      <c r="H25" s="6">
         <v>330000</v>
       </c>
-      <c r="O25" s="6">
+      <c r="I25" s="6">
         <v>291000</v>
       </c>
-      <c r="P25" s="6">
+      <c r="J25" s="6">
         <v>281200</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="29" t="s">
         <v>100</v>
       </c>
@@ -3203,29 +4670,23 @@
       <c r="E26" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="25">
+      <c r="F26" s="25">
         <v>11677</v>
       </c>
-      <c r="M26" s="25">
+      <c r="G26" s="25">
         <v>13036</v>
       </c>
-      <c r="N26" s="25">
+      <c r="H26" s="25">
         <v>23234</v>
       </c>
-      <c r="O26" s="25">
+      <c r="I26" s="25">
         <v>23194</v>
       </c>
-      <c r="P26" s="25">
+      <c r="J26" s="25">
         <v>18638</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
         <v>103</v>
       </c>
@@ -3241,31 +4702,25 @@
       <c r="E27" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="25">
+      <c r="F27" s="25">
         <v>614</v>
       </c>
-      <c r="M27" s="25">
+      <c r="G27" s="25">
         <v>571</v>
       </c>
-      <c r="N27" s="25">
+      <c r="H27" s="25">
         <v>612</v>
       </c>
-      <c r="O27" s="25">
+      <c r="I27" s="25">
         <v>565</v>
       </c>
-      <c r="P27" s="25">
+      <c r="J27" s="25">
         <v>523</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>36</v>
@@ -3279,29 +4734,23 @@
       <c r="E28" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
-      <c r="K28" s="54"/>
-      <c r="L28" s="6">
+      <c r="F28" s="6">
         <v>8300</v>
       </c>
-      <c r="M28" s="6">
+      <c r="G28" s="6">
         <v>9400</v>
       </c>
-      <c r="N28" s="6">
+      <c r="H28" s="6">
         <v>11000</v>
       </c>
-      <c r="O28" s="6">
+      <c r="I28" s="6">
         <v>11000</v>
       </c>
-      <c r="P28" s="6">
+      <c r="J28" s="6">
         <v>10000</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>38</v>
       </c>
@@ -3317,31 +4766,25 @@
       <c r="E29" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="12">
+      <c r="F29" s="12">
         <v>5385</v>
       </c>
-      <c r="M29" s="12">
+      <c r="G29" s="12">
         <v>6099</v>
       </c>
-      <c r="N29" s="12">
+      <c r="H29" s="12">
         <v>6981</v>
       </c>
-      <c r="O29" s="12">
+      <c r="I29" s="12">
         <v>7400</v>
       </c>
-      <c r="P29" s="12">
+      <c r="J29" s="12">
         <v>6000</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>39</v>
@@ -3353,31 +4796,25 @@
       <c r="E30" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="54"/>
-      <c r="L30" s="6">
+      <c r="F30" s="6">
         <v>38</v>
       </c>
-      <c r="M30" s="6">
+      <c r="G30" s="6">
         <v>38</v>
       </c>
-      <c r="N30" s="6">
+      <c r="H30" s="6">
         <v>40</v>
       </c>
-      <c r="O30" s="6">
+      <c r="I30" s="6">
         <v>36</v>
       </c>
-      <c r="P30" s="6">
+      <c r="J30" s="6">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>41</v>
@@ -3389,29 +4826,23 @@
       <c r="E31" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="56"/>
-      <c r="L31" s="14">
+      <c r="F31" s="14">
         <v>1</v>
       </c>
-      <c r="M31" s="14">
+      <c r="G31" s="14">
         <v>1</v>
       </c>
-      <c r="N31" s="14">
+      <c r="H31" s="14">
         <v>1</v>
       </c>
-      <c r="O31" s="14">
+      <c r="I31" s="14">
         <v>1</v>
       </c>
-      <c r="P31" s="14">
+      <c r="J31" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="29" t="s">
         <v>105</v>
       </c>
@@ -3425,29 +4856,23 @@
       <c r="E32" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="34" t="s">
+      <c r="F32" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M32" s="34" t="s">
+      <c r="G32" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="N32" s="34" t="s">
+      <c r="H32" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="O32" s="25">
+      <c r="I32" s="25">
         <v>35000</v>
       </c>
-      <c r="P32" s="25">
+      <c r="J32" s="25">
         <v>80000</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="29" t="s">
         <v>107</v>
       </c>
@@ -3461,29 +4886,23 @@
       <c r="E33" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
-      <c r="K33" s="55"/>
-      <c r="L33" s="25">
+      <c r="F33" s="25">
         <v>8233</v>
       </c>
-      <c r="M33" s="25">
+      <c r="G33" s="25">
         <v>154</v>
       </c>
-      <c r="N33" s="25">
+      <c r="H33" s="25">
         <v>89</v>
       </c>
-      <c r="O33" s="25">
+      <c r="I33" s="25">
         <v>87</v>
       </c>
-      <c r="P33" s="25">
+      <c r="J33" s="25">
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>43</v>
       </c>
@@ -3499,105 +4918,87 @@
       <c r="E34" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="54"/>
-      <c r="K34" s="54"/>
-      <c r="L34" s="6">
+      <c r="F34" s="6">
         <v>160751</v>
       </c>
-      <c r="M34" s="6">
+      <c r="G34" s="6">
         <v>161497</v>
       </c>
-      <c r="N34" s="6">
+      <c r="H34" s="6">
         <v>172877</v>
       </c>
-      <c r="O34" s="6">
+      <c r="I34" s="6">
         <v>191882</v>
       </c>
-      <c r="P34" s="6">
+      <c r="J34" s="6">
         <v>174974</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="35" t="s">
-        <v>315</v>
-      </c>
-      <c r="B35" s="36" t="s">
+    <row r="35" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C35" s="36" t="s">
+      <c r="C35" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D35" s="36" t="s">
+      <c r="D35" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E35" s="37" t="s">
+      <c r="E35" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="57"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="9" t="s">
+      <c r="F35" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="M35" s="9" t="s">
+      <c r="G35" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="N35" s="6">
+      <c r="H35" s="6">
         <v>14000</v>
       </c>
-      <c r="O35" s="6">
+      <c r="I35" s="6">
         <v>11000</v>
       </c>
-      <c r="P35" s="6">
+      <c r="J35" s="6">
         <v>11000</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="46" t="s">
-        <v>316</v>
-      </c>
-      <c r="B36" s="47" t="s">
+    <row r="36" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="42" t="s">
+        <v>290</v>
+      </c>
+      <c r="B36" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="C36" s="47"/>
+      <c r="C36" s="43"/>
       <c r="D36" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="E36" s="51" t="s">
+      <c r="E36" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="55"/>
-      <c r="K36" s="55"/>
-      <c r="L36" s="25">
+      <c r="F36" s="25">
         <v>1726</v>
       </c>
-      <c r="M36" s="25">
+      <c r="G36" s="25">
         <v>1679</v>
       </c>
-      <c r="N36" s="25">
+      <c r="H36" s="25">
         <v>3001</v>
       </c>
-      <c r="O36" s="25">
+      <c r="I36" s="25">
         <v>3240</v>
       </c>
-      <c r="P36" s="25">
+      <c r="J36" s="25">
         <v>2408</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>46</v>
@@ -3611,29 +5012,23 @@
       <c r="E37" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F37" s="54"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="54"/>
-      <c r="J37" s="54"/>
-      <c r="K37" s="54"/>
-      <c r="L37" s="6">
+      <c r="F37" s="6">
         <v>70000</v>
       </c>
-      <c r="M37" s="6">
+      <c r="G37" s="6">
         <v>71000</v>
       </c>
-      <c r="N37" s="6">
+      <c r="H37" s="6">
         <v>67000</v>
       </c>
-      <c r="O37" s="6">
+      <c r="I37" s="6">
         <v>58000</v>
       </c>
-      <c r="P37" s="6">
+      <c r="J37" s="6">
         <v>61000</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>66</v>
       </c>
@@ -3649,29 +5044,23 @@
       <c r="E38" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F38" s="54"/>
-      <c r="G38" s="54"/>
-      <c r="H38" s="54"/>
-      <c r="I38" s="54"/>
-      <c r="J38" s="54"/>
-      <c r="K38" s="54"/>
-      <c r="L38" s="6">
+      <c r="F38" s="6">
         <v>100</v>
       </c>
-      <c r="M38" s="6">
+      <c r="G38" s="6">
         <v>300</v>
       </c>
-      <c r="N38" s="6">
+      <c r="H38" s="6">
         <v>200</v>
       </c>
-      <c r="O38" s="6">
+      <c r="I38" s="6">
         <v>300</v>
       </c>
-      <c r="P38" s="6">
+      <c r="J38" s="6">
         <v>420</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>52</v>
       </c>
@@ -3687,29 +5076,23 @@
       <c r="E39" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F39" s="54"/>
-      <c r="G39" s="54"/>
-      <c r="H39" s="54"/>
-      <c r="I39" s="54"/>
-      <c r="J39" s="54"/>
-      <c r="K39" s="54"/>
-      <c r="L39" s="6">
+      <c r="F39" s="6">
         <v>1502</v>
       </c>
-      <c r="M39" s="6">
+      <c r="G39" s="6">
         <v>1399</v>
       </c>
-      <c r="N39" s="6">
+      <c r="H39" s="6">
         <v>1608</v>
       </c>
-      <c r="O39" s="6">
+      <c r="I39" s="6">
         <v>1670</v>
       </c>
-      <c r="P39" s="6">
+      <c r="J39" s="6">
         <v>1440</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>54</v>
       </c>
@@ -3725,29 +5108,23 @@
       <c r="E40" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F40" s="54"/>
-      <c r="G40" s="54"/>
-      <c r="H40" s="54"/>
-      <c r="I40" s="54"/>
-      <c r="J40" s="54"/>
-      <c r="K40" s="54"/>
-      <c r="L40" s="6">
+      <c r="F40" s="6">
         <v>5851</v>
       </c>
-      <c r="M40" s="6">
+      <c r="G40" s="6">
         <v>6240</v>
       </c>
-      <c r="N40" s="6">
+      <c r="H40" s="6">
         <v>6306</v>
       </c>
-      <c r="O40" s="6">
+      <c r="I40" s="6">
         <v>6680</v>
       </c>
-      <c r="P40" s="6">
+      <c r="J40" s="6">
         <v>6360</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>55</v>
       </c>
@@ -3763,36 +5140,30 @@
       <c r="E41" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F41" s="56"/>
-      <c r="G41" s="56"/>
-      <c r="H41" s="56"/>
-      <c r="I41" s="56"/>
-      <c r="J41" s="56"/>
-      <c r="K41" s="56"/>
-      <c r="L41" s="14">
+      <c r="F41" s="14">
         <v>12473</v>
       </c>
-      <c r="M41" s="14">
+      <c r="G41" s="14">
         <v>12646</v>
       </c>
-      <c r="N41" s="14">
+      <c r="H41" s="14">
         <v>13208</v>
       </c>
-      <c r="O41" s="14">
+      <c r="I41" s="14">
         <v>13443</v>
       </c>
-      <c r="P41" s="14">
+      <c r="J41" s="14">
         <v>12790</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B42" s="48" t="s">
+      <c r="B42" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="48" t="s">
+      <c r="C42" s="44" t="s">
         <v>50</v>
       </c>
       <c r="D42" s="4" t="s">
@@ -3801,32 +5172,26 @@
       <c r="E42" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F42" s="54"/>
-      <c r="G42" s="54"/>
-      <c r="H42" s="54"/>
-      <c r="I42" s="54"/>
-      <c r="J42" s="54"/>
-      <c r="K42" s="54"/>
-      <c r="L42" s="6">
+      <c r="F42" s="6">
         <v>46220</v>
       </c>
-      <c r="M42" s="6">
+      <c r="G42" s="6">
         <v>46731</v>
       </c>
-      <c r="N42" s="6">
+      <c r="H42" s="6">
         <v>50300</v>
       </c>
-      <c r="O42" s="6">
+      <c r="I42" s="6">
         <v>52755</v>
       </c>
-      <c r="P42" s="6">
+      <c r="J42" s="6">
         <v>58472</v>
       </c>
-      <c r="Q42" s="18"/>
-    </row>
-    <row r="43" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="K42" s="18"/>
+    </row>
+    <row r="43" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>49</v>
@@ -3840,29 +5205,23 @@
       <c r="E43" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F43" s="54"/>
-      <c r="G43" s="54"/>
-      <c r="H43" s="54"/>
-      <c r="I43" s="54"/>
-      <c r="J43" s="54"/>
-      <c r="K43" s="54"/>
-      <c r="L43" s="6">
+      <c r="F43" s="6">
         <v>27700</v>
       </c>
-      <c r="M43" s="6">
+      <c r="G43" s="6">
         <v>28100</v>
       </c>
-      <c r="N43" s="6">
+      <c r="H43" s="6">
         <v>30200</v>
       </c>
-      <c r="O43" s="6">
+      <c r="I43" s="6">
         <v>31700</v>
       </c>
-      <c r="P43" s="6">
+      <c r="J43" s="6">
         <v>35200</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>56</v>
       </c>
@@ -3878,29 +5237,23 @@
       <c r="E44" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F44" s="54"/>
-      <c r="G44" s="54"/>
-      <c r="H44" s="54"/>
-      <c r="I44" s="54"/>
-      <c r="J44" s="54"/>
-      <c r="K44" s="54"/>
-      <c r="L44" s="17">
+      <c r="F44" s="17">
         <v>3699</v>
       </c>
-      <c r="M44" s="17">
+      <c r="G44" s="17">
         <v>12020</v>
       </c>
-      <c r="N44" s="17">
+      <c r="H44" s="17">
         <v>13494</v>
       </c>
-      <c r="O44" s="17">
+      <c r="I44" s="17">
         <v>15605</v>
       </c>
-      <c r="P44" s="17">
+      <c r="J44" s="17">
         <v>21782</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>25</v>
       </c>
@@ -3916,29 +5269,23 @@
       <c r="E45" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="54"/>
-      <c r="G45" s="54"/>
-      <c r="H45" s="54"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="54"/>
-      <c r="K45" s="54"/>
-      <c r="L45" s="6">
+      <c r="F45" s="6">
         <v>127264</v>
       </c>
-      <c r="M45" s="6">
+      <c r="G45" s="6">
         <v>142076</v>
       </c>
-      <c r="N45" s="6">
+      <c r="H45" s="6">
         <v>124555</v>
       </c>
-      <c r="O45" s="6">
+      <c r="I45" s="6">
         <v>120000</v>
       </c>
-      <c r="P45" s="6">
+      <c r="J45" s="6">
         <v>112909</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>27</v>
       </c>
@@ -3954,29 +5301,23 @@
       <c r="E46" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F46" s="54"/>
-      <c r="G46" s="54"/>
-      <c r="H46" s="54"/>
-      <c r="I46" s="54"/>
-      <c r="J46" s="54"/>
-      <c r="K46" s="54"/>
-      <c r="L46" s="17">
+      <c r="F46" s="17">
         <v>141600</v>
       </c>
-      <c r="M46" s="17">
+      <c r="G46" s="17">
         <v>132150</v>
       </c>
-      <c r="N46" s="17">
+      <c r="H46" s="17">
         <v>149506</v>
       </c>
-      <c r="O46" s="17">
+      <c r="I46" s="17">
         <v>141000</v>
       </c>
-      <c r="P46" s="17">
+      <c r="J46" s="17">
         <v>147358</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
         <v>29</v>
       </c>
@@ -3992,29 +5333,23 @@
       <c r="E47" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="54"/>
-      <c r="G47" s="54"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="54"/>
-      <c r="J47" s="54"/>
-      <c r="K47" s="54"/>
-      <c r="L47" s="6">
+      <c r="F47" s="6">
         <v>269000</v>
       </c>
-      <c r="M47" s="6">
+      <c r="G47" s="6">
         <v>274000</v>
       </c>
-      <c r="N47" s="6">
+      <c r="H47" s="6">
         <v>274000</v>
       </c>
-      <c r="O47" s="6">
+      <c r="I47" s="6">
         <v>261000</v>
       </c>
-      <c r="P47" s="6">
+      <c r="J47" s="6">
         <v>260000</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="29" t="s">
         <v>112</v>
       </c>
@@ -4028,69 +5363,57 @@
       <c r="E48" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F48" s="55"/>
-      <c r="G48" s="55"/>
-      <c r="H48" s="55"/>
-      <c r="I48" s="55"/>
-      <c r="J48" s="55"/>
-      <c r="K48" s="55"/>
-      <c r="L48" s="25">
+      <c r="F48" s="25">
         <v>1852</v>
       </c>
-      <c r="M48" s="25">
+      <c r="G48" s="25">
         <v>1807</v>
       </c>
-      <c r="N48" s="25">
+      <c r="H48" s="25">
         <v>1842</v>
       </c>
-      <c r="O48" s="25">
+      <c r="I48" s="25">
         <v>1785</v>
       </c>
-      <c r="P48" s="25">
+      <c r="J48" s="25">
         <v>1706</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="35" t="s">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B49" s="36" t="s">
+      <c r="B49" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C49" s="36" t="s">
+      <c r="C49" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D49" s="36" t="s">
+      <c r="D49" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E49" s="37" t="s">
+      <c r="E49" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F49" s="57"/>
-      <c r="G49" s="57"/>
-      <c r="H49" s="57"/>
-      <c r="I49" s="57"/>
-      <c r="J49" s="57"/>
-      <c r="K49" s="57"/>
-      <c r="L49" s="9" t="s">
+      <c r="F49" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="M49" s="9" t="s">
+      <c r="G49" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="N49" s="9" t="s">
+      <c r="H49" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O49" s="6">
+      <c r="I49" s="6">
         <v>114000</v>
       </c>
-      <c r="P49" s="6">
+      <c r="J49" s="6">
         <v>9000</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A50" s="29" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="B50" s="23" t="s">
         <v>116</v>
@@ -4102,29 +5425,23 @@
       <c r="E50" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F50" s="55"/>
-      <c r="G50" s="55"/>
-      <c r="H50" s="55"/>
-      <c r="I50" s="55"/>
-      <c r="J50" s="55"/>
-      <c r="K50" s="55"/>
-      <c r="L50" s="25">
+      <c r="F50" s="25">
         <v>100000</v>
       </c>
-      <c r="M50" s="25">
+      <c r="G50" s="25">
         <v>150000</v>
       </c>
-      <c r="N50" s="25">
+      <c r="H50" s="25">
         <v>150000</v>
       </c>
-      <c r="O50" s="25">
+      <c r="I50" s="25">
         <v>150000</v>
       </c>
-      <c r="P50" s="25">
+      <c r="J50" s="25">
         <v>180000</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="29" t="s">
         <v>117</v>
       </c>
@@ -4138,29 +5455,23 @@
       <c r="E51" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F51" s="55"/>
-      <c r="G51" s="55"/>
-      <c r="H51" s="55"/>
-      <c r="I51" s="55"/>
-      <c r="J51" s="55"/>
-      <c r="K51" s="55"/>
-      <c r="L51" s="34" t="s">
+      <c r="F51" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="M51" s="25">
+      <c r="G51" s="25">
         <v>22000</v>
       </c>
-      <c r="N51" s="25">
+      <c r="H51" s="25">
         <v>22000</v>
       </c>
-      <c r="O51" s="25">
+      <c r="I51" s="25">
         <v>21000</v>
       </c>
-      <c r="P51" s="25">
+      <c r="J51" s="25">
         <v>21000</v>
       </c>
     </row>
-    <row r="52" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
         <v>58</v>
       </c>
@@ -4176,29 +5487,23 @@
       <c r="E52" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="54"/>
-      <c r="G52" s="54"/>
-      <c r="H52" s="54"/>
-      <c r="I52" s="54"/>
-      <c r="J52" s="54"/>
-      <c r="K52" s="54"/>
-      <c r="L52" s="6">
+      <c r="F52" s="6">
         <v>2505</v>
       </c>
-      <c r="M52" s="6">
+      <c r="G52" s="6">
         <v>2783</v>
       </c>
-      <c r="N52" s="6">
+      <c r="H52" s="6">
         <v>4765</v>
       </c>
-      <c r="O52" s="6">
+      <c r="I52" s="6">
         <v>5048</v>
       </c>
-      <c r="P52" s="6">
+      <c r="J52" s="6">
         <v>3896</v>
       </c>
     </row>
-    <row r="53" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="29" t="s">
         <v>140</v>
       </c>
@@ -4214,36 +5519,30 @@
       <c r="E53" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="F53" s="55"/>
-      <c r="G53" s="55"/>
-      <c r="H53" s="55"/>
-      <c r="I53" s="55"/>
-      <c r="J53" s="55"/>
-      <c r="K53" s="55"/>
-      <c r="L53" s="25">
+      <c r="F53" s="25">
         <v>154633</v>
       </c>
-      <c r="M53" s="25">
+      <c r="G53" s="25">
         <v>159854</v>
       </c>
-      <c r="N53" s="25">
+      <c r="H53" s="25">
         <v>166278</v>
       </c>
-      <c r="O53" s="25">
+      <c r="I53" s="25">
         <v>172725</v>
       </c>
-      <c r="P53" s="25">
+      <c r="J53" s="25">
         <v>170890</v>
       </c>
     </row>
-    <row r="54" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C54" s="48" t="s">
+      <c r="C54" s="44" t="s">
         <v>62</v>
       </c>
       <c r="D54" s="4" t="s">
@@ -4252,29 +5551,23 @@
       <c r="E54" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F54" s="54"/>
-      <c r="G54" s="54"/>
-      <c r="H54" s="54"/>
-      <c r="I54" s="54"/>
-      <c r="J54" s="54"/>
-      <c r="K54" s="54"/>
-      <c r="L54" s="6">
+      <c r="F54" s="6">
         <v>225351</v>
       </c>
-      <c r="M54" s="6">
+      <c r="G54" s="6">
         <v>230210</v>
       </c>
-      <c r="N54" s="6">
+      <c r="H54" s="6">
         <v>206354</v>
       </c>
-      <c r="O54" s="6">
+      <c r="I54" s="6">
         <v>177867</v>
       </c>
-      <c r="P54" s="6">
+      <c r="J54" s="6">
         <v>181410</v>
       </c>
     </row>
-    <row r="55" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>63</v>
       </c>
@@ -4290,31 +5583,25 @@
       <c r="E55" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F55" s="54"/>
-      <c r="G55" s="54"/>
-      <c r="H55" s="54"/>
-      <c r="I55" s="54"/>
-      <c r="J55" s="54"/>
-      <c r="K55" s="54"/>
-      <c r="L55" s="6">
+      <c r="F55" s="6">
         <v>149716</v>
       </c>
-      <c r="M55" s="6">
+      <c r="G55" s="6">
         <v>158299</v>
       </c>
-      <c r="N55" s="6">
+      <c r="H55" s="6">
         <v>154759</v>
       </c>
-      <c r="O55" s="6">
+      <c r="I55" s="6">
         <v>137411</v>
       </c>
-      <c r="P55" s="6">
+      <c r="J55" s="6">
         <v>124736</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="26" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" s="26" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>64</v>
@@ -4328,29 +5615,23 @@
       <c r="E56" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F56" s="54"/>
-      <c r="G56" s="54"/>
-      <c r="H56" s="54"/>
-      <c r="I56" s="54"/>
-      <c r="J56" s="54"/>
-      <c r="K56" s="54"/>
-      <c r="L56" s="17">
+      <c r="F56" s="17">
         <v>5600000</v>
       </c>
-      <c r="M56" s="17">
+      <c r="G56" s="17">
         <v>6300000</v>
       </c>
-      <c r="N56" s="17">
+      <c r="H56" s="17">
         <v>7200000</v>
       </c>
-      <c r="O56" s="17">
+      <c r="I56" s="17">
         <v>7700000</v>
       </c>
-      <c r="P56" s="17">
+      <c r="J56" s="17">
         <v>6800000</v>
       </c>
     </row>
-    <row r="57" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="29" t="s">
         <v>118</v>
       </c>
@@ -4364,29 +5645,23 @@
       <c r="E57" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F57" s="55"/>
-      <c r="G57" s="55"/>
-      <c r="H57" s="55"/>
-      <c r="I57" s="55"/>
-      <c r="J57" s="55"/>
-      <c r="K57" s="55"/>
-      <c r="L57" s="25">
+      <c r="F57" s="25">
         <v>4004000</v>
       </c>
-      <c r="M57" s="25">
+      <c r="G57" s="25">
         <v>4133000</v>
       </c>
-      <c r="N57" s="25">
+      <c r="H57" s="25">
         <v>3745000</v>
       </c>
-      <c r="O57" s="25">
+      <c r="I57" s="25">
         <v>3832000</v>
       </c>
-      <c r="P57" s="25">
+      <c r="J57" s="25">
         <v>3937000</v>
       </c>
     </row>
-    <row r="58" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>68</v>
       </c>
@@ -4402,29 +5677,23 @@
       <c r="E58" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F58" s="54"/>
-      <c r="G58" s="54"/>
-      <c r="H58" s="54"/>
-      <c r="I58" s="54"/>
-      <c r="J58" s="54"/>
-      <c r="K58" s="54"/>
-      <c r="L58" s="6">
+      <c r="F58" s="6">
         <v>24000</v>
       </c>
-      <c r="M58" s="6">
+      <c r="G58" s="6">
         <v>22000</v>
       </c>
-      <c r="N58" s="6">
+      <c r="H58" s="6">
         <v>19000</v>
       </c>
-      <c r="O58" s="6">
+      <c r="I58" s="6">
         <v>21000</v>
       </c>
-      <c r="P58" s="6">
+      <c r="J58" s="6">
         <v>20000</v>
       </c>
     </row>
-    <row r="59" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="29" t="s">
         <v>144</v>
       </c>
@@ -4440,29 +5709,23 @@
       <c r="E59" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="F59" s="55"/>
-      <c r="G59" s="55"/>
-      <c r="H59" s="55"/>
-      <c r="I59" s="55"/>
-      <c r="J59" s="55"/>
-      <c r="K59" s="55"/>
-      <c r="L59" s="25">
+      <c r="F59" s="25">
         <v>1297</v>
       </c>
-      <c r="M59" s="25">
+      <c r="G59" s="25">
         <v>1452</v>
       </c>
-      <c r="N59" s="25">
+      <c r="H59" s="25">
         <v>1459</v>
       </c>
-      <c r="O59" s="25">
+      <c r="I59" s="25">
         <v>1306</v>
       </c>
-      <c r="P59" s="25">
+      <c r="J59" s="25">
         <v>1259</v>
       </c>
     </row>
-    <row r="60" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="22" t="s">
         <v>146</v>
       </c>
@@ -4478,29 +5741,23 @@
       <c r="E60" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="F60" s="55"/>
-      <c r="G60" s="55"/>
-      <c r="H60" s="55"/>
-      <c r="I60" s="55"/>
-      <c r="J60" s="55"/>
-      <c r="K60" s="55"/>
-      <c r="L60" s="30">
+      <c r="F60" s="30">
         <v>1601985</v>
       </c>
-      <c r="M60" s="30">
+      <c r="G60" s="30">
         <v>1631550</v>
       </c>
-      <c r="N60" s="30">
+      <c r="H60" s="30">
         <v>1838505</v>
       </c>
-      <c r="O60" s="30">
+      <c r="I60" s="30">
         <v>2007865</v>
       </c>
-      <c r="P60" s="30">
+      <c r="J60" s="30">
         <v>2062615</v>
       </c>
     </row>
-    <row r="61" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="22" t="s">
         <v>149</v>
       </c>
@@ -4516,29 +5773,23 @@
       <c r="E61" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F61" s="55"/>
-      <c r="G61" s="55"/>
-      <c r="H61" s="55"/>
-      <c r="I61" s="55"/>
-      <c r="J61" s="55"/>
-      <c r="K61" s="55"/>
-      <c r="L61" s="30">
+      <c r="F61" s="30">
         <v>317563</v>
       </c>
-      <c r="M61" s="30">
+      <c r="G61" s="30">
         <v>360328</v>
       </c>
-      <c r="N61" s="30">
+      <c r="H61" s="30">
         <v>370508</v>
       </c>
-      <c r="O61" s="30">
+      <c r="I61" s="30">
         <v>236285</v>
       </c>
-      <c r="P61" s="30">
+      <c r="J61" s="30">
         <v>248900</v>
       </c>
     </row>
-    <row r="62" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="22" t="s">
         <v>151</v>
       </c>
@@ -4554,19 +5805,13 @@
       <c r="E62" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="55"/>
-      <c r="G62" s="55"/>
-      <c r="H62" s="55"/>
-      <c r="I62" s="55"/>
-      <c r="J62" s="55"/>
-      <c r="K62" s="55"/>
-      <c r="L62" s="30"/>
-      <c r="M62" s="30"/>
-      <c r="N62" s="30"/>
-      <c r="O62" s="30"/>
-      <c r="P62" s="30"/>
-    </row>
-    <row r="63" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="30"/>
+      <c r="J62" s="30"/>
+    </row>
+    <row r="63" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="28" t="s">
         <v>152</v>
       </c>
@@ -4582,29 +5827,23 @@
       <c r="E63" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F63" s="55"/>
-      <c r="G63" s="55"/>
-      <c r="H63" s="55"/>
-      <c r="I63" s="55"/>
-      <c r="J63" s="55"/>
-      <c r="K63" s="55"/>
-      <c r="L63" s="25">
+      <c r="F63" s="25">
         <v>25445</v>
       </c>
-      <c r="M63" s="25">
+      <c r="G63" s="25">
         <v>28892</v>
       </c>
-      <c r="N63" s="25">
+      <c r="H63" s="25">
         <v>31388</v>
       </c>
-      <c r="O63" s="25">
+      <c r="I63" s="25">
         <v>25000</v>
       </c>
-      <c r="P63" s="25">
+      <c r="J63" s="25">
         <v>22600</v>
       </c>
     </row>
-    <row r="64" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="28" t="s">
         <v>153</v>
       </c>
@@ -4620,29 +5859,23 @@
       <c r="E64" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F64" s="55"/>
-      <c r="G64" s="55"/>
-      <c r="H64" s="55"/>
-      <c r="I64" s="55"/>
-      <c r="J64" s="55"/>
-      <c r="K64" s="55"/>
-      <c r="L64" s="25">
+      <c r="F64" s="25">
         <v>176595</v>
       </c>
-      <c r="M64" s="25">
+      <c r="G64" s="25">
         <v>175300</v>
       </c>
-      <c r="N64" s="25">
+      <c r="H64" s="25">
         <v>193261</v>
       </c>
-      <c r="O64" s="25">
+      <c r="I64" s="25">
         <v>208000</v>
       </c>
-      <c r="P64" s="25">
+      <c r="J64" s="25">
         <v>188000</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="28" t="s">
         <v>154</v>
       </c>
@@ -4658,19 +5891,13 @@
       <c r="E65" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F65" s="55"/>
-      <c r="G65" s="55"/>
-      <c r="H65" s="55"/>
-      <c r="I65" s="55"/>
-      <c r="J65" s="55"/>
-      <c r="K65" s="55"/>
-      <c r="L65" s="25"/>
-      <c r="M65" s="25"/>
-      <c r="N65" s="25"/>
-      <c r="O65" s="25"/>
-      <c r="P65" s="25"/>
-    </row>
-    <row r="66" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F65" s="25"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="25"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="33" t="s">
         <v>156</v>
       </c>
@@ -4686,29 +5913,23 @@
       <c r="E66" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F66" s="55"/>
-      <c r="G66" s="55"/>
-      <c r="H66" s="55"/>
-      <c r="I66" s="55"/>
-      <c r="J66" s="55"/>
-      <c r="K66" s="55"/>
-      <c r="L66" s="25">
+      <c r="F66" s="25">
         <v>31263</v>
       </c>
-      <c r="M66" s="25">
+      <c r="G66" s="25">
         <v>27150</v>
       </c>
-      <c r="N66" s="25">
+      <c r="H66" s="25">
         <v>31275</v>
       </c>
-      <c r="O66" s="25">
+      <c r="I66" s="25">
         <v>21000</v>
       </c>
-      <c r="P66" s="25">
+      <c r="J66" s="25">
         <v>19000</v>
       </c>
     </row>
-    <row r="67" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="33" t="s">
         <v>157</v>
       </c>
@@ -4724,29 +5945,23 @@
       <c r="E67" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F67" s="55"/>
-      <c r="G67" s="55"/>
-      <c r="H67" s="55"/>
-      <c r="I67" s="55"/>
-      <c r="J67" s="55"/>
-      <c r="K67" s="55"/>
-      <c r="L67" s="25">
+      <c r="F67" s="25">
         <v>35206</v>
       </c>
-      <c r="M67" s="25">
+      <c r="G67" s="25">
         <v>26936</v>
       </c>
-      <c r="N67" s="25">
+      <c r="H67" s="25">
         <v>25653</v>
       </c>
-      <c r="O67" s="25">
+      <c r="I67" s="25">
         <v>21000</v>
       </c>
-      <c r="P67" s="25">
+      <c r="J67" s="25">
         <v>19000</v>
       </c>
     </row>
-    <row r="68" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="28" t="s">
         <v>158</v>
       </c>
@@ -4762,19 +5977,13 @@
       <c r="E68" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F68" s="55"/>
-      <c r="G68" s="55"/>
-      <c r="H68" s="55"/>
-      <c r="I68" s="55"/>
-      <c r="J68" s="55"/>
-      <c r="K68" s="55"/>
-      <c r="L68" s="25"/>
-      <c r="M68" s="25"/>
-      <c r="N68" s="25"/>
-      <c r="O68" s="25"/>
-      <c r="P68" s="25"/>
-    </row>
-    <row r="69" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F68" s="25"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="25"/>
+      <c r="I68" s="25"/>
+      <c r="J68" s="25"/>
+    </row>
+    <row r="69" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="33" t="s">
         <v>160</v>
       </c>
@@ -4790,29 +5999,23 @@
       <c r="E69" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F69" s="55"/>
-      <c r="G69" s="55"/>
-      <c r="H69" s="55"/>
-      <c r="I69" s="55"/>
-      <c r="J69" s="55"/>
-      <c r="K69" s="55"/>
-      <c r="L69" s="25">
+      <c r="F69" s="25">
         <v>26810</v>
       </c>
-      <c r="M69" s="25">
+      <c r="G69" s="25">
         <v>35954</v>
       </c>
-      <c r="N69" s="25">
+      <c r="H69" s="25">
         <v>44463</v>
       </c>
-      <c r="O69" s="25">
+      <c r="I69" s="25">
         <v>69000</v>
       </c>
-      <c r="P69" s="25">
+      <c r="J69" s="25">
         <v>62400</v>
       </c>
     </row>
-    <row r="70" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="33" t="s">
         <v>161</v>
       </c>
@@ -4828,29 +6031,23 @@
       <c r="E70" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F70" s="55"/>
-      <c r="G70" s="55"/>
-      <c r="H70" s="55"/>
-      <c r="I70" s="55"/>
-      <c r="J70" s="55"/>
-      <c r="K70" s="55"/>
-      <c r="L70" s="31">
+      <c r="F70" s="31">
         <v>258126</v>
       </c>
-      <c r="M70" s="31">
+      <c r="G70" s="31">
         <v>271848</v>
       </c>
-      <c r="N70" s="31">
+      <c r="H70" s="31">
         <v>284326</v>
       </c>
-      <c r="O70" s="31">
+      <c r="I70" s="31">
         <v>291000</v>
       </c>
-      <c r="P70" s="31">
+      <c r="J70" s="31">
         <v>263000</v>
       </c>
     </row>
-    <row r="71" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="28" t="s">
         <v>162</v>
       </c>
@@ -4866,29 +6063,23 @@
       <c r="E71" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F71" s="55"/>
-      <c r="G71" s="55"/>
-      <c r="H71" s="55"/>
-      <c r="I71" s="55"/>
-      <c r="J71" s="55"/>
-      <c r="K71" s="55"/>
-      <c r="L71" s="25">
+      <c r="F71" s="25">
         <v>9717</v>
       </c>
-      <c r="M71" s="25">
+      <c r="G71" s="25">
         <v>7893</v>
       </c>
-      <c r="N71" s="25">
+      <c r="H71" s="25">
         <v>7119</v>
       </c>
-      <c r="O71" s="25">
+      <c r="I71" s="25">
         <v>5700</v>
       </c>
-      <c r="P71" s="25">
+      <c r="J71" s="25">
         <v>5160</v>
       </c>
     </row>
-    <row r="72" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="28" t="s">
         <v>164</v>
       </c>
@@ -4904,29 +6095,23 @@
       <c r="E72" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F72" s="58"/>
-      <c r="G72" s="58"/>
-      <c r="H72" s="58"/>
-      <c r="I72" s="58"/>
-      <c r="J72" s="58"/>
-      <c r="K72" s="58"/>
-      <c r="L72" s="27">
+      <c r="F72" s="27">
         <v>84688</v>
       </c>
-      <c r="M72" s="27">
+      <c r="G72" s="27">
         <v>86467</v>
       </c>
-      <c r="N72" s="27">
+      <c r="H72" s="27">
         <v>65940</v>
       </c>
-      <c r="O72" s="27">
+      <c r="I72" s="27">
         <v>53000</v>
       </c>
-      <c r="P72" s="27">
+      <c r="J72" s="27">
         <v>48000</v>
       </c>
     </row>
-    <row r="73" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="33" t="s">
         <v>29</v>
       </c>
@@ -4942,29 +6127,23 @@
       <c r="E73" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F73" s="55"/>
-      <c r="G73" s="55"/>
-      <c r="H73" s="55"/>
-      <c r="I73" s="55"/>
-      <c r="J73" s="55"/>
-      <c r="K73" s="55"/>
-      <c r="L73" s="25">
+      <c r="F73" s="25">
         <v>648000</v>
       </c>
-      <c r="M73" s="25">
+      <c r="G73" s="25">
         <v>660000</v>
       </c>
-      <c r="N73" s="25">
+      <c r="H73" s="25">
         <v>683000</v>
       </c>
-      <c r="O73" s="25">
+      <c r="I73" s="25">
         <v>694000</v>
       </c>
-      <c r="P73" s="25">
+      <c r="J73" s="25">
         <v>628000</v>
       </c>
     </row>
-    <row r="74" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>70</v>
       </c>
@@ -4980,33 +6159,27 @@
       <c r="E74" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F74" s="54"/>
-      <c r="G74" s="54"/>
-      <c r="H74" s="54"/>
-      <c r="I74" s="54"/>
-      <c r="J74" s="54"/>
-      <c r="K74" s="54"/>
-      <c r="L74" s="6">
+      <c r="F74" s="6">
         <v>8600</v>
       </c>
-      <c r="M74" s="6">
+      <c r="G74" s="6">
         <v>8400</v>
       </c>
-      <c r="N74" s="6">
+      <c r="H74" s="6">
         <v>7600</v>
       </c>
-      <c r="O74" s="6">
+      <c r="I74" s="6">
         <v>7600</v>
       </c>
-      <c r="P74" s="6">
+      <c r="J74" s="6">
         <v>7200</v>
       </c>
     </row>
-    <row r="75" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B75" s="49" t="s">
+      <c r="B75" s="45" t="s">
         <v>76</v>
       </c>
       <c r="C75" s="4" t="s">
@@ -5018,67 +6191,55 @@
       <c r="E75" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F75" s="54"/>
-      <c r="G75" s="54"/>
-      <c r="H75" s="54"/>
-      <c r="I75" s="54"/>
-      <c r="J75" s="54"/>
-      <c r="K75" s="54"/>
-      <c r="L75" s="6">
+      <c r="F75" s="6">
         <v>33600</v>
       </c>
-      <c r="M75" s="6">
+      <c r="G75" s="6">
         <v>31600</v>
       </c>
-      <c r="N75" s="6">
+      <c r="H75" s="6">
         <v>27400</v>
       </c>
-      <c r="O75" s="6">
+      <c r="I75" s="6">
         <v>29900</v>
       </c>
-      <c r="P75" s="6">
+      <c r="J75" s="6">
         <v>28600</v>
       </c>
     </row>
-    <row r="76" spans="1:16" s="26" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A76" s="35" t="s">
-        <v>318</v>
-      </c>
-      <c r="B76" s="36" t="s">
+    <row r="76" spans="1:10" s="26" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A76" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="B76" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C76" s="36" t="s">
+      <c r="C76" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D76" s="36" t="s">
+      <c r="D76" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E76" s="37" t="s">
+      <c r="E76" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F76" s="57"/>
-      <c r="G76" s="57"/>
-      <c r="H76" s="57"/>
-      <c r="I76" s="57"/>
-      <c r="J76" s="57"/>
-      <c r="K76" s="57"/>
-      <c r="L76" s="6">
+      <c r="F76" s="6">
         <v>11462</v>
       </c>
-      <c r="M76" s="6">
+      <c r="G76" s="6">
         <v>10790</v>
       </c>
-      <c r="N76" s="6">
+      <c r="H76" s="6">
         <v>12563</v>
       </c>
-      <c r="O76" s="6">
+      <c r="I76" s="6">
         <v>14024</v>
       </c>
-      <c r="P76" s="6">
+      <c r="J76" s="6">
         <v>12770</v>
       </c>
     </row>
-    <row r="77" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>72</v>
       </c>
@@ -5094,29 +6255,23 @@
       <c r="E77" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F77" s="54"/>
-      <c r="G77" s="54"/>
-      <c r="H77" s="54"/>
-      <c r="I77" s="54"/>
-      <c r="J77" s="54"/>
-      <c r="K77" s="54"/>
-      <c r="L77" s="6">
+      <c r="F77" s="6">
         <v>600</v>
       </c>
-      <c r="M77" s="6">
+      <c r="G77" s="6">
         <v>600</v>
       </c>
-      <c r="N77" s="6">
+      <c r="H77" s="6">
         <v>60</v>
       </c>
-      <c r="O77" s="6">
+      <c r="I77" s="6">
         <v>300</v>
       </c>
-      <c r="P77" s="6">
+      <c r="J77" s="6">
         <v>280</v>
       </c>
     </row>
-    <row r="78" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>74</v>
       </c>
@@ -5132,29 +6287,23 @@
       <c r="E78" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F78" s="56"/>
-      <c r="G78" s="56"/>
-      <c r="H78" s="56"/>
-      <c r="I78" s="56"/>
-      <c r="J78" s="56"/>
-      <c r="K78" s="56"/>
-      <c r="L78" s="14">
+      <c r="F78" s="14">
         <v>300</v>
       </c>
-      <c r="M78" s="14">
+      <c r="G78" s="14">
         <v>300</v>
       </c>
-      <c r="N78" s="14">
+      <c r="H78" s="14">
         <v>500</v>
       </c>
-      <c r="O78" s="14">
+      <c r="I78" s="14">
         <v>700</v>
       </c>
-      <c r="P78" s="14">
+      <c r="J78" s="14">
         <v>700</v>
       </c>
     </row>
-    <row r="79" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="29" t="s">
         <v>121</v>
       </c>
@@ -5168,29 +6317,23 @@
       <c r="E79" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F79" s="55"/>
-      <c r="G79" s="55"/>
-      <c r="H79" s="55"/>
-      <c r="I79" s="55"/>
-      <c r="J79" s="55"/>
-      <c r="K79" s="55"/>
-      <c r="L79" s="25">
+      <c r="F79" s="25">
         <v>14343</v>
       </c>
-      <c r="M79" s="25">
+      <c r="G79" s="25">
         <v>10252</v>
       </c>
-      <c r="N79" s="25">
+      <c r="H79" s="25">
         <v>11424</v>
       </c>
-      <c r="O79" s="25">
+      <c r="I79" s="25">
         <v>10713</v>
       </c>
-      <c r="P79" s="25">
+      <c r="J79" s="25">
         <v>10243</v>
       </c>
     </row>
-    <row r="80" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="29" t="s">
         <v>122</v>
       </c>
@@ -5204,29 +6347,23 @@
       <c r="E80" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F80" s="55"/>
-      <c r="G80" s="55"/>
-      <c r="H80" s="55"/>
-      <c r="I80" s="55"/>
-      <c r="J80" s="55"/>
-      <c r="K80" s="55"/>
-      <c r="L80" s="25">
+      <c r="F80" s="25">
         <v>2053</v>
       </c>
-      <c r="M80" s="25">
+      <c r="G80" s="25">
         <v>2256</v>
       </c>
-      <c r="N80" s="25">
+      <c r="H80" s="25">
         <v>2540</v>
       </c>
-      <c r="O80" s="25">
+      <c r="I80" s="25">
         <v>4864</v>
       </c>
-      <c r="P80" s="25">
+      <c r="J80" s="25">
         <v>4740</v>
       </c>
     </row>
-    <row r="81" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="22" t="s">
         <v>124</v>
       </c>
@@ -5242,29 +6379,23 @@
       <c r="E81" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F81" s="55"/>
-      <c r="G81" s="55"/>
-      <c r="H81" s="55"/>
-      <c r="I81" s="55"/>
-      <c r="J81" s="55"/>
-      <c r="K81" s="55"/>
-      <c r="L81" s="25">
+      <c r="F81" s="25">
         <v>228030</v>
       </c>
-      <c r="M81" s="25">
+      <c r="G81" s="25">
         <v>280550</v>
       </c>
-      <c r="N81" s="25">
+      <c r="H81" s="25">
         <v>231219</v>
       </c>
-      <c r="O81" s="25">
+      <c r="I81" s="25">
         <v>245815</v>
       </c>
-      <c r="P81" s="25">
+      <c r="J81" s="25">
         <v>243818</v>
       </c>
     </row>
-    <row r="82" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="s">
         <v>78</v>
       </c>
@@ -5280,33 +6411,27 @@
       <c r="E82" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F82" s="54"/>
-      <c r="G82" s="54"/>
-      <c r="H82" s="54"/>
-      <c r="I82" s="54"/>
-      <c r="J82" s="54"/>
-      <c r="K82" s="54"/>
-      <c r="L82" s="6">
+      <c r="F82" s="6">
         <v>156000</v>
       </c>
-      <c r="M82" s="6">
+      <c r="G82" s="6">
         <v>175000</v>
       </c>
-      <c r="N82" s="6">
+      <c r="H82" s="6">
         <v>72000</v>
       </c>
-      <c r="O82" s="6">
+      <c r="I82" s="6">
         <v>85000</v>
       </c>
-      <c r="P82" s="6">
+      <c r="J82" s="6">
         <v>57000</v>
       </c>
     </row>
-    <row r="83" spans="1:16" s="26" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" s="26" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A83" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="B83" s="48" t="s">
+        <v>285</v>
+      </c>
+      <c r="B83" s="44" t="s">
         <v>81</v>
       </c>
       <c r="C83" s="4" t="s">
@@ -5318,29 +6443,23 @@
       <c r="E83" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F83" s="54"/>
-      <c r="G83" s="54"/>
-      <c r="H83" s="54"/>
-      <c r="I83" s="54"/>
-      <c r="J83" s="54"/>
-      <c r="K83" s="54"/>
-      <c r="L83" s="12">
+      <c r="F83" s="12">
         <v>30</v>
       </c>
-      <c r="M83" s="12">
+      <c r="G83" s="12">
         <v>27</v>
       </c>
-      <c r="N83" s="12">
+      <c r="H83" s="12">
         <v>28</v>
       </c>
-      <c r="O83" s="12">
+      <c r="I83" s="12">
         <v>34</v>
       </c>
-      <c r="P83" s="12">
+      <c r="J83" s="12">
         <v>34</v>
       </c>
     </row>
-    <row r="84" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>83</v>
       </c>
@@ -5356,29 +6475,23 @@
       <c r="E84" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F84" s="54"/>
-      <c r="G84" s="54"/>
-      <c r="H84" s="54"/>
-      <c r="I84" s="54"/>
-      <c r="J84" s="54"/>
-      <c r="K84" s="54"/>
-      <c r="L84" s="13">
+      <c r="F84" s="13">
         <v>371000</v>
       </c>
-      <c r="M84" s="13">
+      <c r="G84" s="13">
         <v>385000</v>
       </c>
-      <c r="N84" s="13">
+      <c r="H84" s="13">
         <v>368000</v>
       </c>
-      <c r="O84" s="13">
+      <c r="I84" s="13">
         <v>392000</v>
       </c>
-      <c r="P84" s="13">
+      <c r="J84" s="13">
         <v>379000</v>
       </c>
     </row>
-    <row r="85" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>18</v>
       </c>
@@ -5394,29 +6507,23 @@
       <c r="E85" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F85" s="54"/>
-      <c r="G85" s="54"/>
-      <c r="H85" s="54"/>
-      <c r="I85" s="54"/>
-      <c r="J85" s="54"/>
-      <c r="K85" s="54"/>
-      <c r="L85" s="6">
+      <c r="F85" s="6">
         <v>1891692</v>
       </c>
-      <c r="M85" s="6">
+      <c r="G85" s="6">
         <v>1877394</v>
       </c>
-      <c r="N85" s="6">
+      <c r="H85" s="6">
         <v>1758682</v>
       </c>
-      <c r="O85" s="6">
+      <c r="I85" s="6">
         <v>1700000</v>
       </c>
-      <c r="P85" s="6">
+      <c r="J85" s="6">
         <v>1700000</v>
       </c>
     </row>
-    <row r="86" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="22" t="s">
         <v>126</v>
       </c>
@@ -5432,29 +6539,23 @@
       <c r="E86" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F86" s="55"/>
-      <c r="G86" s="55"/>
-      <c r="H86" s="55"/>
-      <c r="I86" s="55"/>
-      <c r="J86" s="55"/>
-      <c r="K86" s="55"/>
-      <c r="L86" s="30">
+      <c r="F86" s="30">
         <v>158034</v>
       </c>
-      <c r="M86" s="30">
+      <c r="G86" s="30">
         <v>160016</v>
       </c>
-      <c r="N86" s="30">
+      <c r="H86" s="30">
         <v>169518</v>
       </c>
-      <c r="O86" s="30">
+      <c r="I86" s="30">
         <v>188974</v>
       </c>
-      <c r="P86" s="30">
+      <c r="J86" s="30">
         <v>177733</v>
       </c>
     </row>
-    <row r="87" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="22" t="s">
         <v>128</v>
       </c>
@@ -5470,29 +6571,23 @@
       <c r="E87" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F87" s="55"/>
-      <c r="G87" s="55"/>
-      <c r="H87" s="55"/>
-      <c r="I87" s="55"/>
-      <c r="J87" s="55"/>
-      <c r="K87" s="55"/>
-      <c r="L87" s="25">
+      <c r="F87" s="25">
         <v>558</v>
       </c>
-      <c r="M87" s="25">
+      <c r="G87" s="25">
         <v>635</v>
       </c>
-      <c r="N87" s="25">
+      <c r="H87" s="25">
         <v>524</v>
       </c>
-      <c r="O87" s="25">
+      <c r="I87" s="25">
         <v>505</v>
       </c>
-      <c r="P87" s="25">
+      <c r="J87" s="25">
         <v>520</v>
       </c>
     </row>
-    <row r="88" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="22" t="s">
         <v>130</v>
       </c>
@@ -5508,29 +6603,23 @@
       <c r="E88" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F88" s="55"/>
-      <c r="G88" s="55"/>
-      <c r="H88" s="55"/>
-      <c r="I88" s="55"/>
-      <c r="J88" s="55"/>
-      <c r="K88" s="55"/>
-      <c r="L88" s="30">
+      <c r="F88" s="30">
         <v>5187</v>
       </c>
-      <c r="M88" s="30">
+      <c r="G88" s="30">
         <v>4746</v>
       </c>
-      <c r="N88" s="30">
+      <c r="H88" s="30">
         <v>4803</v>
       </c>
-      <c r="O88" s="30">
+      <c r="I88" s="30">
         <v>4828</v>
       </c>
-      <c r="P88" s="30">
+      <c r="J88" s="30">
         <v>6418</v>
       </c>
     </row>
-    <row r="89" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="28" t="s">
         <v>29</v>
       </c>
@@ -5546,29 +6635,23 @@
       <c r="E89" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F89" s="55"/>
-      <c r="G89" s="55"/>
-      <c r="H89" s="55"/>
-      <c r="I89" s="55"/>
-      <c r="J89" s="55"/>
-      <c r="K89" s="55"/>
-      <c r="L89" s="25">
+      <c r="F89" s="25">
         <v>5750</v>
       </c>
-      <c r="M89" s="25">
+      <c r="G89" s="25">
         <v>5380</v>
       </c>
-      <c r="N89" s="25">
+      <c r="H89" s="25">
         <v>5330</v>
       </c>
-      <c r="O89" s="25">
+      <c r="I89" s="25">
         <v>5330</v>
       </c>
-      <c r="P89" s="25">
+      <c r="J89" s="25">
         <v>6940</v>
       </c>
     </row>
-    <row r="90" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="29" t="s">
         <v>131</v>
       </c>
@@ -5584,29 +6667,23 @@
       <c r="E90" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F90" s="55"/>
-      <c r="G90" s="55"/>
-      <c r="H90" s="55"/>
-      <c r="I90" s="55"/>
-      <c r="J90" s="55"/>
-      <c r="K90" s="55"/>
-      <c r="L90" s="30">
-        <v>175</v>
-      </c>
-      <c r="M90" s="30">
+      <c r="F90" s="30">
+        <v>175</v>
+      </c>
+      <c r="G90" s="30">
         <v>199</v>
       </c>
-      <c r="N90" s="30">
+      <c r="H90" s="30">
         <v>215</v>
       </c>
-      <c r="O90" s="30">
+      <c r="I90" s="30">
         <v>279</v>
       </c>
-      <c r="P90" s="30">
+      <c r="J90" s="30">
         <v>243</v>
       </c>
     </row>
-    <row r="91" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="8" t="s">
         <v>85</v>
       </c>
@@ -5622,31 +6699,25 @@
       <c r="E91" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F91" s="54"/>
-      <c r="G91" s="54"/>
-      <c r="H91" s="54"/>
-      <c r="I91" s="54"/>
-      <c r="J91" s="54"/>
-      <c r="K91" s="54"/>
-      <c r="L91" s="6">
+      <c r="F91" s="6">
         <v>10000</v>
       </c>
-      <c r="M91" s="6">
+      <c r="G91" s="6">
         <v>18000</v>
       </c>
-      <c r="N91" s="6">
+      <c r="H91" s="6">
         <v>49000</v>
       </c>
-      <c r="O91" s="6">
+      <c r="I91" s="6">
         <v>40000</v>
       </c>
-      <c r="P91" s="6">
+      <c r="J91" s="6">
         <v>40000</v>
       </c>
     </row>
-    <row r="92" spans="1:16" s="26" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" s="26" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A92" s="8" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>87</v>
@@ -5660,31 +6731,25 @@
       <c r="E92" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F92" s="54"/>
-      <c r="G92" s="54"/>
-      <c r="H92" s="54"/>
-      <c r="I92" s="54"/>
-      <c r="J92" s="54"/>
-      <c r="K92" s="54"/>
-      <c r="L92" s="6">
+      <c r="F92" s="6">
         <v>700000</v>
       </c>
-      <c r="M92" s="6">
+      <c r="G92" s="6">
         <v>700000</v>
       </c>
-      <c r="N92" s="6">
+      <c r="H92" s="6">
         <v>800000</v>
       </c>
-      <c r="O92" s="6">
+      <c r="I92" s="6">
         <v>700000</v>
       </c>
-      <c r="P92" s="6">
+      <c r="J92" s="6">
         <v>800000</v>
       </c>
     </row>
-    <row r="93" spans="1:16" s="26" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" s="26" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A93" s="8" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>89</v>
@@ -5698,29 +6763,23 @@
       <c r="E93" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F93" s="54"/>
-      <c r="G93" s="54"/>
-      <c r="H93" s="54"/>
-      <c r="I93" s="54"/>
-      <c r="J93" s="54"/>
-      <c r="K93" s="54"/>
-      <c r="L93" s="6">
+      <c r="F93" s="6">
         <v>1600</v>
       </c>
-      <c r="M93" s="9" t="s">
+      <c r="G93" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="N93" s="9" t="s">
+      <c r="H93" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O93" s="9" t="s">
+      <c r="I93" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P93" s="9" t="s">
+      <c r="J93" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="8" t="s">
         <v>165</v>
       </c>
@@ -5736,29 +6795,23 @@
       <c r="E94" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F94" s="56"/>
-      <c r="G94" s="56"/>
-      <c r="H94" s="56"/>
-      <c r="I94" s="56"/>
-      <c r="J94" s="56"/>
-      <c r="K94" s="56"/>
-      <c r="L94" s="14">
+      <c r="F94" s="14">
         <v>13279</v>
       </c>
-      <c r="M94" s="14">
+      <c r="G94" s="14">
         <v>14133</v>
       </c>
-      <c r="N94" s="14">
+      <c r="H94" s="14">
         <v>12207</v>
       </c>
-      <c r="O94" s="14">
+      <c r="I94" s="14">
         <v>6975</v>
       </c>
-      <c r="P94" s="14">
+      <c r="J94" s="14">
         <v>6796</v>
       </c>
     </row>
-    <row r="95" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>91</v>
       </c>
@@ -5774,29 +6827,23 @@
       <c r="E95" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F95" s="54"/>
-      <c r="G95" s="54"/>
-      <c r="H95" s="54"/>
-      <c r="I95" s="54"/>
-      <c r="J95" s="54"/>
-      <c r="K95" s="54"/>
-      <c r="L95" s="6">
+      <c r="F95" s="6">
         <v>275410</v>
       </c>
-      <c r="M95" s="6">
+      <c r="G95" s="6">
         <v>301210</v>
       </c>
-      <c r="N95" s="6">
+      <c r="H95" s="6">
         <v>305314</v>
       </c>
-      <c r="O95" s="6">
+      <c r="I95" s="6">
         <v>304964</v>
       </c>
-      <c r="P95" s="6">
+      <c r="J95" s="6">
         <v>335806</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>93</v>
       </c>
@@ -5812,271 +6859,193 @@
       <c r="E96" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F96" s="54"/>
-      <c r="G96" s="54"/>
-      <c r="H96" s="54"/>
-      <c r="I96" s="54"/>
-      <c r="J96" s="54"/>
-      <c r="K96" s="54"/>
-      <c r="L96" s="6">
+      <c r="F96" s="6">
         <v>683118</v>
       </c>
-      <c r="M96" s="6">
+      <c r="G96" s="6">
         <v>691389</v>
       </c>
-      <c r="N96" s="6">
+      <c r="H96" s="6">
         <v>598438</v>
       </c>
-      <c r="O96" s="6">
+      <c r="I96" s="6">
         <v>620202</v>
       </c>
-      <c r="P96" s="6">
+      <c r="J96" s="6">
         <v>654971</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A97" s="39" t="s">
-        <v>319</v>
-      </c>
-      <c r="B97" s="40"/>
-      <c r="C97" s="40"/>
-      <c r="D97" s="40"/>
-      <c r="E97" s="40"/>
-      <c r="F97" s="40"/>
-      <c r="G97" s="40"/>
-      <c r="H97" s="40"/>
-      <c r="I97" s="40"/>
-      <c r="J97" s="40"/>
-      <c r="K97" s="40"/>
-      <c r="L97" s="40"/>
-      <c r="M97" s="40"/>
-      <c r="N97" s="40"/>
-      <c r="O97" s="40"/>
-      <c r="P97" s="40"/>
-    </row>
-    <row r="98" spans="1:16" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="41" t="s">
-        <v>320</v>
-      </c>
-      <c r="B98" s="42"/>
-      <c r="C98" s="42"/>
-      <c r="D98" s="42"/>
-      <c r="E98" s="42"/>
-      <c r="F98" s="42"/>
-      <c r="G98" s="42"/>
-      <c r="H98" s="42"/>
-      <c r="I98" s="42"/>
-      <c r="J98" s="42"/>
-      <c r="K98" s="42"/>
-      <c r="L98" s="42"/>
-      <c r="M98" s="42"/>
-      <c r="N98" s="42"/>
-      <c r="O98" s="42"/>
-      <c r="P98" s="42"/>
-    </row>
-    <row r="99" spans="1:16" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="44" t="s">
-        <v>321</v>
-      </c>
-      <c r="B99" s="43"/>
-      <c r="C99" s="43"/>
-      <c r="D99" s="43"/>
-      <c r="E99" s="43"/>
-      <c r="F99" s="43"/>
-      <c r="G99" s="43"/>
-      <c r="H99" s="43"/>
-      <c r="I99" s="43"/>
-      <c r="J99" s="43"/>
-      <c r="K99" s="43"/>
-      <c r="L99" s="43"/>
-      <c r="M99" s="43"/>
-      <c r="N99" s="43"/>
-      <c r="O99" s="43"/>
-      <c r="P99" s="43"/>
-    </row>
-    <row r="100" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A100" s="44" t="s">
-        <v>322</v>
-      </c>
-      <c r="B100" s="45"/>
-      <c r="C100" s="45"/>
-      <c r="D100" s="45"/>
-      <c r="E100" s="45"/>
-      <c r="F100" s="45"/>
-      <c r="G100" s="45"/>
-      <c r="H100" s="45"/>
-      <c r="I100" s="45"/>
-      <c r="J100" s="45"/>
-      <c r="K100" s="45"/>
-      <c r="L100" s="45"/>
-      <c r="M100" s="45"/>
-      <c r="N100" s="45"/>
-      <c r="O100" s="45"/>
-      <c r="P100" s="45"/>
-    </row>
-    <row r="101" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A101" s="44" t="s">
-        <v>323</v>
-      </c>
-      <c r="B101" s="45"/>
-      <c r="C101" s="45"/>
-      <c r="D101" s="45"/>
-      <c r="E101" s="45"/>
-      <c r="F101" s="45"/>
-      <c r="G101" s="45"/>
-      <c r="H101" s="45"/>
-      <c r="I101" s="45"/>
-      <c r="J101" s="45"/>
-      <c r="K101" s="45"/>
-      <c r="L101" s="45"/>
-      <c r="M101" s="45"/>
-      <c r="N101" s="45"/>
-      <c r="O101" s="45"/>
-      <c r="P101" s="45"/>
-    </row>
-    <row r="102" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A102" s="44" t="s">
-        <v>324</v>
-      </c>
-      <c r="B102" s="45"/>
-      <c r="C102" s="45"/>
-      <c r="D102" s="45"/>
-      <c r="E102" s="45"/>
-      <c r="F102" s="45"/>
-      <c r="G102" s="45"/>
-      <c r="H102" s="45"/>
-      <c r="I102" s="45"/>
-      <c r="J102" s="45"/>
-      <c r="K102" s="45"/>
-      <c r="L102" s="45"/>
-      <c r="M102" s="45"/>
-      <c r="N102" s="45"/>
-      <c r="O102" s="45"/>
-      <c r="P102" s="45"/>
-    </row>
-    <row r="103" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A103" s="44" t="s">
-        <v>325</v>
-      </c>
-      <c r="B103" s="45"/>
-      <c r="C103" s="45"/>
-      <c r="D103" s="45"/>
-      <c r="E103" s="45"/>
-      <c r="F103" s="45"/>
-      <c r="G103" s="45"/>
-      <c r="H103" s="45"/>
-      <c r="I103" s="45"/>
-      <c r="J103" s="45"/>
-      <c r="K103" s="45"/>
-      <c r="L103" s="45"/>
-      <c r="M103" s="45"/>
-      <c r="N103" s="45"/>
-      <c r="O103" s="45"/>
-      <c r="P103" s="45"/>
-    </row>
-    <row r="104" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A104" s="44" t="s">
-        <v>326</v>
-      </c>
-      <c r="B104" s="45"/>
-      <c r="C104" s="45"/>
-      <c r="D104" s="45"/>
-      <c r="E104" s="45"/>
-      <c r="F104" s="45"/>
-      <c r="G104" s="45"/>
-      <c r="H104" s="45"/>
-      <c r="I104" s="45"/>
-      <c r="J104" s="45"/>
-      <c r="K104" s="45"/>
-      <c r="L104" s="45"/>
-      <c r="M104" s="45"/>
-      <c r="N104" s="45"/>
-      <c r="O104" s="45"/>
-      <c r="P104" s="45"/>
-    </row>
-    <row r="105" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A105" s="44" t="s">
-        <v>327</v>
-      </c>
-      <c r="B105" s="45"/>
-      <c r="C105" s="45"/>
-      <c r="D105" s="45"/>
-      <c r="E105" s="45"/>
-      <c r="F105" s="45"/>
-      <c r="G105" s="45"/>
-      <c r="H105" s="45"/>
-      <c r="I105" s="45"/>
-      <c r="J105" s="45"/>
-      <c r="K105" s="45"/>
-      <c r="L105" s="45"/>
-      <c r="M105" s="45"/>
-      <c r="N105" s="45"/>
-      <c r="O105" s="45"/>
-      <c r="P105" s="45"/>
-    </row>
-    <row r="106" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A106" s="44" t="s">
-        <v>328</v>
-      </c>
-      <c r="B106" s="45"/>
-      <c r="C106" s="45"/>
-      <c r="D106" s="45"/>
-      <c r="E106" s="45"/>
-      <c r="F106" s="45"/>
-      <c r="G106" s="45"/>
-      <c r="H106" s="45"/>
-      <c r="I106" s="45"/>
-      <c r="J106" s="45"/>
-      <c r="K106" s="45"/>
-      <c r="L106" s="45"/>
-      <c r="M106" s="45"/>
-      <c r="N106" s="45"/>
-      <c r="O106" s="45"/>
-      <c r="P106" s="45"/>
-    </row>
-    <row r="107" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A107" s="44" t="s">
-        <v>329</v>
-      </c>
-      <c r="B107" s="45"/>
-      <c r="C107" s="45"/>
-      <c r="D107" s="45"/>
-      <c r="E107" s="45"/>
-      <c r="F107" s="45"/>
-      <c r="G107" s="45"/>
-      <c r="H107" s="45"/>
-      <c r="I107" s="45"/>
-      <c r="J107" s="45"/>
-      <c r="K107" s="45"/>
-      <c r="L107" s="45"/>
-      <c r="M107" s="45"/>
-      <c r="N107" s="45"/>
-      <c r="O107" s="45"/>
-      <c r="P107" s="45"/>
-    </row>
-    <row r="108" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A108" s="44" t="s">
-        <v>330</v>
-      </c>
-      <c r="B108" s="45"/>
-      <c r="C108" s="45"/>
-      <c r="D108" s="45"/>
-      <c r="E108" s="45"/>
-      <c r="F108" s="45"/>
-      <c r="G108" s="45"/>
-      <c r="H108" s="45"/>
-      <c r="I108" s="45"/>
-      <c r="J108" s="45"/>
-      <c r="K108" s="45"/>
-      <c r="L108" s="45"/>
-      <c r="M108" s="45"/>
-      <c r="N108" s="45"/>
-      <c r="O108" s="45"/>
-      <c r="P108" s="45"/>
+    <row r="97" spans="1:10" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A97" s="35" t="s">
+        <v>293</v>
+      </c>
+      <c r="B97" s="36"/>
+      <c r="C97" s="36"/>
+      <c r="D97" s="36"/>
+      <c r="E97" s="36"/>
+      <c r="F97" s="36"/>
+      <c r="G97" s="36"/>
+      <c r="H97" s="36"/>
+      <c r="I97" s="36"/>
+      <c r="J97" s="36"/>
+    </row>
+    <row r="98" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="B98" s="38"/>
+      <c r="C98" s="38"/>
+      <c r="D98" s="38"/>
+      <c r="E98" s="38"/>
+      <c r="F98" s="38"/>
+      <c r="G98" s="38"/>
+      <c r="H98" s="38"/>
+      <c r="I98" s="38"/>
+      <c r="J98" s="38"/>
+    </row>
+    <row r="99" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="40" t="s">
+        <v>295</v>
+      </c>
+      <c r="B99" s="39"/>
+      <c r="C99" s="39"/>
+      <c r="D99" s="39"/>
+      <c r="E99" s="39"/>
+      <c r="F99" s="39"/>
+      <c r="G99" s="39"/>
+      <c r="H99" s="39"/>
+      <c r="I99" s="39"/>
+      <c r="J99" s="39"/>
+    </row>
+    <row r="100" spans="1:10" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A100" s="40" t="s">
+        <v>296</v>
+      </c>
+      <c r="B100" s="41"/>
+      <c r="C100" s="41"/>
+      <c r="D100" s="41"/>
+      <c r="E100" s="41"/>
+      <c r="F100" s="41"/>
+      <c r="G100" s="41"/>
+      <c r="H100" s="41"/>
+      <c r="I100" s="41"/>
+      <c r="J100" s="41"/>
+    </row>
+    <row r="101" spans="1:10" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A101" s="40" t="s">
+        <v>297</v>
+      </c>
+      <c r="B101" s="41"/>
+      <c r="C101" s="41"/>
+      <c r="D101" s="41"/>
+      <c r="E101" s="41"/>
+      <c r="F101" s="41"/>
+      <c r="G101" s="41"/>
+      <c r="H101" s="41"/>
+      <c r="I101" s="41"/>
+      <c r="J101" s="41"/>
+    </row>
+    <row r="102" spans="1:10" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A102" s="40" t="s">
+        <v>298</v>
+      </c>
+      <c r="B102" s="41"/>
+      <c r="C102" s="41"/>
+      <c r="D102" s="41"/>
+      <c r="E102" s="41"/>
+      <c r="F102" s="41"/>
+      <c r="G102" s="41"/>
+      <c r="H102" s="41"/>
+      <c r="I102" s="41"/>
+      <c r="J102" s="41"/>
+    </row>
+    <row r="103" spans="1:10" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A103" s="40" t="s">
+        <v>299</v>
+      </c>
+      <c r="B103" s="41"/>
+      <c r="C103" s="41"/>
+      <c r="D103" s="41"/>
+      <c r="E103" s="41"/>
+      <c r="F103" s="41"/>
+      <c r="G103" s="41"/>
+      <c r="H103" s="41"/>
+      <c r="I103" s="41"/>
+      <c r="J103" s="41"/>
+    </row>
+    <row r="104" spans="1:10" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A104" s="40" t="s">
+        <v>300</v>
+      </c>
+      <c r="B104" s="41"/>
+      <c r="C104" s="41"/>
+      <c r="D104" s="41"/>
+      <c r="E104" s="41"/>
+      <c r="F104" s="41"/>
+      <c r="G104" s="41"/>
+      <c r="H104" s="41"/>
+      <c r="I104" s="41"/>
+      <c r="J104" s="41"/>
+    </row>
+    <row r="105" spans="1:10" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A105" s="40" t="s">
+        <v>301</v>
+      </c>
+      <c r="B105" s="41"/>
+      <c r="C105" s="41"/>
+      <c r="D105" s="41"/>
+      <c r="E105" s="41"/>
+      <c r="F105" s="41"/>
+      <c r="G105" s="41"/>
+      <c r="H105" s="41"/>
+      <c r="I105" s="41"/>
+      <c r="J105" s="41"/>
+    </row>
+    <row r="106" spans="1:10" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A106" s="40" t="s">
+        <v>302</v>
+      </c>
+      <c r="B106" s="41"/>
+      <c r="C106" s="41"/>
+      <c r="D106" s="41"/>
+      <c r="E106" s="41"/>
+      <c r="F106" s="41"/>
+      <c r="G106" s="41"/>
+      <c r="H106" s="41"/>
+      <c r="I106" s="41"/>
+      <c r="J106" s="41"/>
+    </row>
+    <row r="107" spans="1:10" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A107" s="40" t="s">
+        <v>303</v>
+      </c>
+      <c r="B107" s="41"/>
+      <c r="C107" s="41"/>
+      <c r="D107" s="41"/>
+      <c r="E107" s="41"/>
+      <c r="F107" s="41"/>
+      <c r="G107" s="41"/>
+      <c r="H107" s="41"/>
+      <c r="I107" s="41"/>
+      <c r="J107" s="41"/>
+    </row>
+    <row r="108" spans="1:10" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A108" s="40" t="s">
+        <v>304</v>
+      </c>
+      <c r="B108" s="41"/>
+      <c r="C108" s="41"/>
+      <c r="D108" s="41"/>
+      <c r="E108" s="41"/>
+      <c r="F108" s="41"/>
+      <c r="G108" s="41"/>
+      <c r="H108" s="41"/>
+      <c r="I108" s="41"/>
+      <c r="J108" s="41"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P1" xr:uid="{9AD0C264-FF60-47D2-AFC9-12502705E0F7}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P108">
+  <autoFilter ref="A1:J1" xr:uid="{9AD0C264-FF60-47D2-AFC9-12502705E0F7}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J108">
       <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
@@ -6084,19 +7053,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C4B24D-B962-45A9-8E6A-72879142293F}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G362"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A317" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -6147,7 +7118,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -6170,7 +7141,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2021</v>
       </c>
@@ -6193,7 +7164,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2022</v>
       </c>
@@ -6216,7 +7187,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2023</v>
       </c>
@@ -6262,7 +7233,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -6285,7 +7256,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2021</v>
       </c>
@@ -6308,7 +7279,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2022</v>
       </c>
@@ -6331,7 +7302,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2023</v>
       </c>
@@ -6354,7 +7325,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2023</v>
       </c>
@@ -6377,7 +7348,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2022</v>
       </c>
@@ -6423,7 +7394,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2020</v>
       </c>
@@ -6446,7 +7417,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2021</v>
       </c>
@@ -6469,7 +7440,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2023</v>
       </c>
@@ -6515,7 +7486,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2020</v>
       </c>
@@ -6538,7 +7509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2021</v>
       </c>
@@ -6561,7 +7532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2022</v>
       </c>
@@ -6584,7 +7555,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2022</v>
       </c>
@@ -6607,7 +7578,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2021</v>
       </c>
@@ -6653,7 +7624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2020</v>
       </c>
@@ -6699,7 +7670,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2020</v>
       </c>
@@ -6722,7 +7693,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2021</v>
       </c>
@@ -6745,7 +7716,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2022</v>
       </c>
@@ -6768,7 +7739,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2023</v>
       </c>
@@ -6791,7 +7762,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2023</v>
       </c>
@@ -6814,7 +7785,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2021</v>
       </c>
@@ -6837,7 +7808,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2022</v>
       </c>
@@ -6883,7 +7854,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2020</v>
       </c>
@@ -6929,7 +7900,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2020</v>
       </c>
@@ -6952,7 +7923,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2021</v>
       </c>
@@ -6975,7 +7946,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2022</v>
       </c>
@@ -6998,7 +7969,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2023</v>
       </c>
@@ -7021,7 +7992,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2021</v>
       </c>
@@ -7067,7 +8038,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2020</v>
       </c>
@@ -7090,7 +8061,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2022</v>
       </c>
@@ -7113,7 +8084,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2022</v>
       </c>
@@ -7136,7 +8107,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2021</v>
       </c>
@@ -7182,7 +8153,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2020</v>
       </c>
@@ -7228,7 +8199,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2020</v>
       </c>
@@ -7251,7 +8222,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2021</v>
       </c>
@@ -7274,7 +8245,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2022</v>
       </c>
@@ -7297,7 +8268,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2023</v>
       </c>
@@ -7320,7 +8291,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>2021</v>
       </c>
@@ -7366,7 +8337,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>2020</v>
       </c>
@@ -7389,7 +8360,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>2022</v>
       </c>
@@ -7412,7 +8383,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>2023</v>
       </c>
@@ -7458,7 +8429,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2020</v>
       </c>
@@ -7481,7 +8452,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>2021</v>
       </c>
@@ -7504,7 +8475,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>2022</v>
       </c>
@@ -7527,7 +8498,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>2023</v>
       </c>
@@ -7550,7 +8521,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>2023</v>
       </c>
@@ -7573,7 +8544,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>2021</v>
       </c>
@@ -7596,7 +8567,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>2022</v>
       </c>
@@ -7642,7 +8613,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>2020</v>
       </c>
@@ -7688,7 +8659,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>2020</v>
       </c>
@@ -7711,7 +8682,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>2021</v>
       </c>
@@ -7734,7 +8705,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>2022</v>
       </c>
@@ -7757,7 +8728,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>2023</v>
       </c>
@@ -7780,7 +8751,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>2022</v>
       </c>
@@ -7803,7 +8774,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>2023</v>
       </c>
@@ -7826,7 +8797,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>2020</v>
       </c>
@@ -7872,7 +8843,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>2021</v>
       </c>
@@ -7895,7 +8866,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>2022</v>
       </c>
@@ -7941,7 +8912,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>2020</v>
       </c>
@@ -7964,7 +8935,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>2021</v>
       </c>
@@ -7987,7 +8958,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>2021</v>
       </c>
@@ -8010,7 +8981,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>2022</v>
       </c>
@@ -8056,7 +9027,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>2020</v>
       </c>
@@ -8079,7 +9050,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>2023</v>
       </c>
@@ -8102,7 +9073,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>2023</v>
       </c>
@@ -8125,7 +9096,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>2021</v>
       </c>
@@ -8148,7 +9119,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>2022</v>
       </c>
@@ -8194,7 +9165,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>2020</v>
       </c>
@@ -8240,7 +9211,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>2020</v>
       </c>
@@ -8263,7 +9234,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>2021</v>
       </c>
@@ -8286,7 +9257,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>2022</v>
       </c>
@@ -8309,7 +9280,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>2023</v>
       </c>
@@ -8332,7 +9303,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>2023</v>
       </c>
@@ -8355,7 +9326,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>2022</v>
       </c>
@@ -8378,7 +9349,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>2020</v>
       </c>
@@ -8424,7 +9395,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>2021</v>
       </c>
@@ -8447,7 +9418,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>2023</v>
       </c>
@@ -8493,7 +9464,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>2020</v>
       </c>
@@ -8516,7 +9487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>2021</v>
       </c>
@@ -8539,7 +9510,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>2022</v>
       </c>
@@ -8562,7 +9533,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>2021</v>
       </c>
@@ -8585,7 +9556,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>2022</v>
       </c>
@@ -8631,7 +9602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>2020</v>
       </c>
@@ -8654,7 +9625,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>2023</v>
       </c>
@@ -8677,7 +9648,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>2022</v>
       </c>
@@ -8723,7 +9694,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>2020</v>
       </c>
@@ -8746,7 +9717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>2021</v>
       </c>
@@ -8792,7 +9763,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>2020</v>
       </c>
@@ -8815,7 +9786,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>2021</v>
       </c>
@@ -8838,7 +9809,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>2022</v>
       </c>
@@ -8861,7 +9832,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>2023</v>
       </c>
@@ -8884,7 +9855,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>2023</v>
       </c>
@@ -8907,7 +9878,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>2022</v>
       </c>
@@ -8930,7 +9901,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>2020</v>
       </c>
@@ -8976,7 +9947,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>2021</v>
       </c>
@@ -8999,7 +9970,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>2022</v>
       </c>
@@ -9045,7 +10016,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>2020</v>
       </c>
@@ -9068,7 +10039,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>2021</v>
       </c>
@@ -9091,7 +10062,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>2023</v>
       </c>
@@ -9114,7 +10085,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>2023</v>
       </c>
@@ -9137,7 +10108,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>2021</v>
       </c>
@@ -9160,7 +10131,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>2022</v>
       </c>
@@ -9206,7 +10177,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>2020</v>
       </c>
@@ -9252,7 +10223,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>2020</v>
       </c>
@@ -9275,7 +10246,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>2021</v>
       </c>
@@ -9298,7 +10269,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>2022</v>
       </c>
@@ -9321,7 +10292,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>2023</v>
       </c>
@@ -9344,7 +10315,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>2023</v>
       </c>
@@ -9367,7 +10338,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>2022</v>
       </c>
@@ -9390,7 +10361,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>2021</v>
       </c>
@@ -9413,7 +10384,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>2020</v>
       </c>
@@ -9482,7 +10453,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>2020</v>
       </c>
@@ -9505,7 +10476,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>2021</v>
       </c>
@@ -9528,7 +10499,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>2022</v>
       </c>
@@ -9551,7 +10522,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>2023</v>
       </c>
@@ -9574,7 +10545,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>2023</v>
       </c>
@@ -9597,7 +10568,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>2021</v>
       </c>
@@ -9620,7 +10591,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>2022</v>
       </c>
@@ -9666,7 +10637,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>2020</v>
       </c>
@@ -9689,7 +10660,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>2023</v>
       </c>
@@ -9712,7 +10683,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>2022</v>
       </c>
@@ -9758,7 +10729,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>2020</v>
       </c>
@@ -9781,7 +10752,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>2021</v>
       </c>
@@ -9827,7 +10798,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>2020</v>
       </c>
@@ -9850,7 +10821,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>2021</v>
       </c>
@@ -9873,7 +10844,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>2022</v>
       </c>
@@ -9896,7 +10867,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>2023</v>
       </c>
@@ -9919,7 +10890,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>2022</v>
       </c>
@@ -9942,7 +10913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>2021</v>
       </c>
@@ -9988,7 +10959,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>2020</v>
       </c>
@@ -10011,7 +10982,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>2023</v>
       </c>
@@ -10057,7 +11028,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>2020</v>
       </c>
@@ -10080,7 +11051,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>2021</v>
       </c>
@@ -10103,7 +11074,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>2022</v>
       </c>
@@ -10126,7 +11097,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>2020</v>
       </c>
@@ -10149,7 +11120,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>2021</v>
       </c>
@@ -10195,7 +11166,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>2022</v>
       </c>
@@ -10218,7 +11189,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>2023</v>
       </c>
@@ -10241,7 +11212,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>2022</v>
       </c>
@@ -10264,7 +11235,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>2021</v>
       </c>
@@ -10287,7 +11258,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>2020</v>
       </c>
@@ -10356,7 +11327,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>2020</v>
       </c>
@@ -10379,7 +11350,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>2021</v>
       </c>
@@ -10402,7 +11373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>2022</v>
       </c>
@@ -10425,7 +11396,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>2022</v>
       </c>
@@ -10448,7 +11419,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>2021</v>
       </c>
@@ -10471,7 +11442,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>2023</v>
       </c>
@@ -10517,7 +11488,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>2020</v>
       </c>
@@ -10563,7 +11534,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>2020</v>
       </c>
@@ -10586,7 +11557,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>2021</v>
       </c>
@@ -10609,7 +11580,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>2022</v>
       </c>
@@ -10655,7 +11626,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>2020</v>
       </c>
@@ -10678,7 +11649,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>2021</v>
       </c>
@@ -10701,7 +11672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>2022</v>
       </c>
@@ -10724,7 +11695,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>2023</v>
       </c>
@@ -10747,7 +11718,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>2023</v>
       </c>
@@ -10770,7 +11741,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>2022</v>
       </c>
@@ -10816,7 +11787,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>2020</v>
       </c>
@@ -10839,7 +11810,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>2021</v>
       </c>
@@ -10885,7 +11856,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>2020</v>
       </c>
@@ -10908,7 +11879,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>2021</v>
       </c>
@@ -10931,7 +11902,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>2022</v>
       </c>
@@ -10954,7 +11925,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>2023</v>
       </c>
@@ -10977,7 +11948,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>2023</v>
       </c>
@@ -11000,7 +11971,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>2022</v>
       </c>
@@ -11023,7 +11994,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>2021</v>
       </c>
@@ -11069,7 +12040,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>2020</v>
       </c>
@@ -11115,7 +12086,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>2020</v>
       </c>
@@ -11138,7 +12109,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>2021</v>
       </c>
@@ -11161,7 +12132,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>2022</v>
       </c>
@@ -11184,7 +12155,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>2023</v>
       </c>
@@ -11207,7 +12178,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>2023</v>
       </c>
@@ -11230,7 +12201,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>2021</v>
       </c>
@@ -11253,7 +12224,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>2022</v>
       </c>
@@ -11299,7 +12270,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>2020</v>
       </c>
@@ -11345,7 +12316,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>2020</v>
       </c>
@@ -11368,7 +12339,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>2021</v>
       </c>
@@ -11391,7 +12362,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>2022</v>
       </c>
@@ -11414,7 +12385,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>2023</v>
       </c>
@@ -11437,7 +12408,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>2021</v>
       </c>
@@ -11460,7 +12431,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>2023</v>
       </c>
@@ -11483,7 +12454,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>2022</v>
       </c>
@@ -11506,7 +12477,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>2020</v>
       </c>
@@ -11575,7 +12546,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>2020</v>
       </c>
@@ -11598,7 +12569,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>2021</v>
       </c>
@@ -11621,7 +12592,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>2022</v>
       </c>
@@ -11644,7 +12615,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>2023</v>
       </c>
@@ -11667,7 +12638,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>2023</v>
       </c>
@@ -11690,7 +12661,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>2021</v>
       </c>
@@ -11713,7 +12684,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>2022</v>
       </c>
@@ -11759,7 +12730,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>2020</v>
       </c>
@@ -11805,7 +12776,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>2020</v>
       </c>
@@ -11828,7 +12799,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>2021</v>
       </c>
@@ -11851,7 +12822,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>2022</v>
       </c>
@@ -11874,7 +12845,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>2023</v>
       </c>
@@ -11897,7 +12868,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>2022</v>
       </c>
@@ -11920,7 +12891,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>2023</v>
       </c>
@@ -11943,7 +12914,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>2020</v>
       </c>
@@ -11989,7 +12960,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>2021</v>
       </c>
@@ -12012,7 +12983,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>2023</v>
       </c>
@@ -12058,7 +13029,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>2020</v>
       </c>
@@ -12081,7 +13052,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>2021</v>
       </c>
@@ -12104,7 +13075,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>2022</v>
       </c>
@@ -12127,7 +13098,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>2021</v>
       </c>
@@ -12150,7 +13121,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>2022</v>
       </c>
@@ -12196,7 +13167,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>2020</v>
       </c>
@@ -12219,7 +13190,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>2023</v>
       </c>
@@ -12242,7 +13213,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>2022</v>
       </c>
@@ -12265,7 +13236,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>2021</v>
       </c>
@@ -12288,7 +13259,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>2023</v>
       </c>
@@ -12334,7 +13305,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>2020</v>
       </c>
@@ -12380,7 +13351,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>2020</v>
       </c>
@@ -12403,7 +13374,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>2021</v>
       </c>
@@ -12426,7 +13397,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>2022</v>
       </c>
@@ -12449,7 +13420,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>2023</v>
       </c>
@@ -12472,7 +13443,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>2023</v>
       </c>
@@ -12495,7 +13466,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>2022</v>
       </c>
@@ -12518,7 +13489,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>2021</v>
       </c>
@@ -12541,7 +13512,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>2020</v>
       </c>
@@ -12610,7 +13581,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>2020</v>
       </c>
@@ -12633,7 +13604,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>2021</v>
       </c>
@@ -12656,7 +13627,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>2022</v>
       </c>
@@ -12679,7 +13650,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>2023</v>
       </c>
@@ -12702,7 +13673,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>2022</v>
       </c>
@@ -12725,7 +13696,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>2021</v>
       </c>
@@ -12748,7 +13719,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>2023</v>
       </c>
@@ -12794,7 +13765,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>2020</v>
       </c>
@@ -12840,7 +13811,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>2020</v>
       </c>
@@ -12863,7 +13834,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>2021</v>
       </c>
@@ -12886,7 +13857,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>2022</v>
       </c>
@@ -12932,7 +13903,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>2020</v>
       </c>
@@ -12955,7 +13926,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>2021</v>
       </c>
@@ -12978,7 +13949,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>2022</v>
       </c>
@@ -13001,7 +13972,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>2023</v>
       </c>
@@ -13024,7 +13995,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>2023</v>
       </c>
@@ -13047,7 +14018,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>2022</v>
       </c>
@@ -13093,7 +14064,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>2020</v>
       </c>
@@ -13116,7 +14087,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>2021</v>
       </c>
@@ -13162,7 +14133,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>2020</v>
       </c>
@@ -13185,7 +14156,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>2021</v>
       </c>
@@ -13208,7 +14179,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>2022</v>
       </c>
@@ -13231,7 +14202,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>2023</v>
       </c>
@@ -13254,7 +14225,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>2022</v>
       </c>
@@ -13277,7 +14248,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>2021</v>
       </c>
@@ -13300,7 +14271,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>2023</v>
       </c>
@@ -13346,7 +14317,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>2020</v>
       </c>
@@ -13392,7 +14363,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>2020</v>
       </c>
@@ -13415,7 +14386,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>2021</v>
       </c>
@@ -13438,7 +14409,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>2022</v>
       </c>
@@ -13461,7 +14432,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>2022</v>
       </c>
@@ -13484,7 +14455,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>2021</v>
       </c>
@@ -13507,7 +14478,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>2023</v>
       </c>
@@ -13553,7 +14524,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>2020</v>
       </c>
@@ -13599,7 +14570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>2020</v>
       </c>
@@ -13622,7 +14593,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>2021</v>
       </c>
@@ -13645,7 +14616,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>2022</v>
       </c>
@@ -13668,7 +14639,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>2023</v>
       </c>
@@ -13714,7 +14685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>2020</v>
       </c>
@@ -13737,7 +14708,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>2021</v>
       </c>
@@ -13760,7 +14731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>2022</v>
       </c>
@@ -13783,7 +14754,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>2021</v>
       </c>
@@ -13806,7 +14777,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>2022</v>
       </c>
@@ -13852,7 +14823,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>2020</v>
       </c>
@@ -13898,7 +14869,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>2020</v>
       </c>
@@ -13921,7 +14892,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>2021</v>
       </c>
@@ -13944,7 +14915,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>2022</v>
       </c>
@@ -13967,7 +14938,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>2023</v>
       </c>
@@ -14013,7 +14984,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>2020</v>
       </c>
@@ -14036,7 +15007,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>2021</v>
       </c>
@@ -14059,7 +15030,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>2022</v>
       </c>
@@ -14082,7 +15053,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>2023</v>
       </c>
@@ -14105,7 +15076,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>2023</v>
       </c>
@@ -14128,7 +15099,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>2022</v>
       </c>
@@ -14174,7 +15145,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>2020</v>
       </c>
@@ -14197,7 +15168,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>2021</v>
       </c>
@@ -14243,7 +15214,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>2020</v>
       </c>
@@ -14266,7 +15237,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>2021</v>
       </c>
@@ -14289,7 +15260,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>2022</v>
       </c>
@@ -14312,7 +15283,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>2022</v>
       </c>
@@ -14358,7 +15329,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>2020</v>
       </c>
@@ -14381,7 +15352,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>2021</v>
       </c>
@@ -14404,7 +15375,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>2023</v>
       </c>
@@ -14428,26 +15399,37 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G362" xr:uid="{93C4B24D-B962-45A9-8E6A-72879142293F}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="2019"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G359">
+      <sortCondition ref="C1:C362"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F277552C-3113-4238-9DBA-0B13DDB12463}">
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -14457,8 +15439,11 @@
       <c r="C1" s="1" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>260</v>
       </c>
@@ -14468,8 +15453,11 @@
       <c r="C2">
         <v>4.4081928911993211</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>261</v>
       </c>
@@ -14479,701 +15467,502 @@
       <c r="C3">
         <v>2.4087389047464198E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>262</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.60398567732524222</v>
+      </c>
+      <c r="D4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>1800</v>
+      </c>
+      <c r="C5">
+        <v>7.8250662957005606</v>
+      </c>
+      <c r="D5" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>3063</v>
+      </c>
+      <c r="C6">
+        <v>1.844847316749985</v>
+      </c>
+      <c r="D6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="54" t="s">
         <v>263</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B7" s="54">
+        <v>26461240</v>
+      </c>
+      <c r="C7" s="54">
+        <v>2.539749819529765</v>
+      </c>
+      <c r="D7" s="54" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <v>510782</v>
+      </c>
+      <c r="C8">
+        <v>2.2981893247413661</v>
+      </c>
+      <c r="D8" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>264</v>
       </c>
-      <c r="B6">
-        <v>50000</v>
-      </c>
-      <c r="C6">
-        <v>0.60398567732524222</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B9">
+        <v>17728144</v>
+      </c>
+      <c r="C9">
+        <v>22.325757866932211</v>
+      </c>
+      <c r="D9" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10">
+        <v>20000</v>
+      </c>
+      <c r="C10">
+        <v>0.21653418203184199</v>
+      </c>
+      <c r="D10" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11">
+        <v>205831</v>
+      </c>
+      <c r="C11">
+        <v>6.1938634016461522</v>
+      </c>
+      <c r="D11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12">
+        <v>13000</v>
+      </c>
+      <c r="C12">
+        <v>0.75253866022647942</v>
+      </c>
+      <c r="D12" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="54" t="s">
         <v>265</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B13" s="54">
+        <v>3174070</v>
+      </c>
+      <c r="C13" s="54">
+        <v>1.7933774292178331</v>
+      </c>
+      <c r="D13" s="54" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14">
+        <v>39</v>
+      </c>
+      <c r="C14">
+        <v>3.8690476190476191</v>
+      </c>
+      <c r="D14" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>266</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B15">
+        <v>42073900</v>
+      </c>
+      <c r="C15">
+        <v>2.718035435339718</v>
+      </c>
+      <c r="D15" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16">
+        <v>8247</v>
+      </c>
+      <c r="C16">
+        <v>0.17569424471926631</v>
+      </c>
+      <c r="D16" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17">
+        <v>6427680</v>
+      </c>
+      <c r="C17">
+        <v>0.89723120570602455</v>
+      </c>
+      <c r="D17" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18">
+        <v>230000</v>
+      </c>
+      <c r="C18">
+        <v>0.8615610384717346</v>
+      </c>
+      <c r="D18" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19">
+        <v>1146</v>
+      </c>
+      <c r="C19">
+        <v>0.43170345814812022</v>
+      </c>
+      <c r="D19" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="54" t="s">
         <v>267</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B20" s="54">
+        <v>186121</v>
+      </c>
+      <c r="C20" s="54">
+        <v>4.475801176610914</v>
+      </c>
+      <c r="D20" s="54" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21">
+        <v>143266</v>
+      </c>
+      <c r="C21">
+        <v>4.4096825506264281</v>
+      </c>
+      <c r="D21" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>268</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>1800</v>
-      </c>
-      <c r="C12">
-        <v>7.8250662957005606</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B22">
+        <v>6800</v>
+      </c>
+      <c r="C22">
+        <v>5.7525230735392396</v>
+      </c>
+      <c r="D22" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="54" t="s">
         <v>269</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14">
-        <v>3063</v>
-      </c>
-      <c r="C14">
-        <v>1.844847316749985</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B23" s="54">
+        <v>179386500</v>
+      </c>
+      <c r="C23" s="54">
+        <v>90.880835315485101</v>
+      </c>
+      <c r="D23" s="54" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24">
+        <v>16099</v>
+      </c>
+      <c r="C24">
+        <v>7.9693285547393229</v>
+      </c>
+      <c r="D24" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="B25" s="54">
+        <v>271233300</v>
+      </c>
+      <c r="C25" s="54">
+        <v>6.1227846009448381</v>
+      </c>
+      <c r="D25" s="54" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26">
+        <v>5490</v>
+      </c>
+      <c r="C26">
+        <v>2.9996393876146041</v>
+      </c>
+      <c r="D26" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>270</v>
       </c>
-      <c r="B15">
-        <v>26461240</v>
-      </c>
-      <c r="C15">
-        <v>2.539749819529765</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16">
-        <v>510782</v>
-      </c>
-      <c r="C16">
-        <v>2.2981893247413661</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B27">
+        <v>15116101</v>
+      </c>
+      <c r="C27">
+        <v>36.027157278464372</v>
+      </c>
+      <c r="D27" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28">
+        <v>500</v>
+      </c>
+      <c r="C28">
+        <v>2.1996392591614971</v>
+      </c>
+      <c r="D28" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="54" t="s">
         <v>271</v>
       </c>
-      <c r="B17">
-        <v>17728144</v>
-      </c>
-      <c r="C17">
-        <v>22.325757866932211</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B29" s="54">
+        <v>14640779</v>
+      </c>
+      <c r="C29" s="54">
+        <v>5.3849078494516069</v>
+      </c>
+      <c r="D29" s="54" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30">
+        <v>110</v>
+      </c>
+      <c r="C30">
+        <v>2.9451137884872831</v>
+      </c>
+      <c r="D30" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31">
+        <v>334480</v>
+      </c>
+      <c r="C31">
+        <v>1.258184424227528</v>
+      </c>
+      <c r="D31" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="54" t="s">
         <v>272</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="B32" s="54">
+        <v>12201040</v>
+      </c>
+      <c r="C32" s="54">
+        <v>0.1842920640954695</v>
+      </c>
+      <c r="D32" s="54" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="54" t="s">
         <v>273</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>104</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>105</v>
-      </c>
-      <c r="B21">
-        <v>20000</v>
-      </c>
-      <c r="C21">
-        <v>0.21653418203184199</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="B33" s="54">
+        <v>4898600</v>
+      </c>
+      <c r="C33" s="54">
+        <v>5.9184073378102244</v>
+      </c>
+      <c r="D33" s="54" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="54" t="s">
         <v>274</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="B34" s="54">
+        <v>200000</v>
+      </c>
+      <c r="C34" s="54">
+        <v>2.5639102708322521</v>
+      </c>
+      <c r="D34" s="54" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35">
+        <v>24</v>
+      </c>
+      <c r="C35">
+        <v>3.5242290748898681</v>
+      </c>
+      <c r="D35" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>275</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24">
-        <v>205831</v>
-      </c>
-      <c r="C24">
-        <v>6.1938634016461522</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>109</v>
-      </c>
-      <c r="B25">
-        <v>13000</v>
-      </c>
-      <c r="C25">
-        <v>0.75253866022647942</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="B36">
+        <v>540000</v>
+      </c>
+      <c r="C36">
+        <v>6.0382462517586397</v>
+      </c>
+      <c r="D36" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>276</v>
       </c>
-      <c r="B26">
-        <v>3174070</v>
-      </c>
-      <c r="C26">
-        <v>1.7933774292178331</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27">
-        <v>39</v>
-      </c>
-      <c r="C27">
-        <v>3.8690476190476191</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>277</v>
-      </c>
-      <c r="B28">
-        <v>42073900</v>
-      </c>
-      <c r="C28">
-        <v>2.718035435339718</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>278</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30">
-        <v>8247</v>
-      </c>
-      <c r="C30">
-        <v>0.17569424471926631</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>137</v>
-      </c>
-      <c r="B31">
-        <v>6427680</v>
-      </c>
-      <c r="C31">
-        <v>0.89723120570602455</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>279</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>116</v>
-      </c>
-      <c r="B33">
-        <v>230000</v>
-      </c>
-      <c r="C33">
-        <v>0.8615610384717346</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>280</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>281</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>59</v>
-      </c>
-      <c r="B36">
-        <v>1146</v>
-      </c>
-      <c r="C36">
-        <v>0.43170345814812022</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>282</v>
-      </c>
       <c r="B37">
-        <v>186121</v>
+        <v>6168</v>
       </c>
       <c r="C37">
-        <v>4.475801176610914</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+        <v>11.019795612091761</v>
+      </c>
+      <c r="D37" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="B38">
-        <v>143266</v>
+        <v>208147</v>
       </c>
       <c r="C38">
-        <v>4.4096825506264281</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>283</v>
-      </c>
-      <c r="B39">
-        <v>6800</v>
-      </c>
-      <c r="C39">
-        <v>5.7525230735392396</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>284</v>
-      </c>
-      <c r="B40">
-        <v>179386500</v>
-      </c>
-      <c r="C40">
-        <v>90.880835315485101</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>285</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>69</v>
-      </c>
-      <c r="B42">
-        <v>16099</v>
-      </c>
-      <c r="C42">
-        <v>7.9693285547393229</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>286</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>147</v>
-      </c>
-      <c r="B44">
-        <v>271233300</v>
-      </c>
-      <c r="C44">
-        <v>6.1227846009448381</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>287</v>
-      </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>71</v>
-      </c>
-      <c r="B46">
-        <v>5490</v>
-      </c>
-      <c r="C46">
-        <v>2.9996393876146041</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>288</v>
-      </c>
-      <c r="B47">
-        <v>15116101</v>
-      </c>
-      <c r="C47">
-        <v>36.027157278464372</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>289</v>
-      </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>290</v>
-      </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>73</v>
-      </c>
-      <c r="B50">
-        <v>500</v>
-      </c>
-      <c r="C50">
-        <v>2.1996392591614971</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>291</v>
-      </c>
-      <c r="B51">
-        <v>14640779</v>
-      </c>
-      <c r="C51">
-        <v>5.3849078494516069</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>79</v>
-      </c>
-      <c r="B52">
-        <v>110</v>
-      </c>
-      <c r="C52">
-        <v>2.9451137884872831</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>84</v>
-      </c>
-      <c r="B53">
-        <v>334480</v>
-      </c>
-      <c r="C53">
-        <v>1.258184424227528</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>292</v>
-      </c>
-      <c r="B54">
-        <v>12201040</v>
-      </c>
-      <c r="C54">
-        <v>0.1842920640954695</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>293</v>
-      </c>
-      <c r="B55">
-        <v>4898600</v>
-      </c>
-      <c r="C55">
-        <v>5.9184073378102244</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>294</v>
-      </c>
-      <c r="B56">
-        <v>200000</v>
-      </c>
-      <c r="C56">
-        <v>2.5639102708322521</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>295</v>
-      </c>
-      <c r="B57">
-        <v>0</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>86</v>
-      </c>
-      <c r="B58">
-        <v>24</v>
-      </c>
-      <c r="C58">
-        <v>3.5242290748898681</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>296</v>
-      </c>
-      <c r="B59">
-        <v>0</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>297</v>
-      </c>
-      <c r="B60">
-        <v>540000</v>
-      </c>
-      <c r="C60">
-        <v>6.0382462517586397</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>298</v>
-      </c>
-      <c r="B61">
-        <v>0</v>
-      </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>299</v>
-      </c>
-      <c r="B62">
-        <v>6168</v>
-      </c>
-      <c r="C62">
-        <v>11.019795612091761</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>300</v>
-      </c>
-      <c r="B63">
-        <v>0</v>
-      </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>301</v>
-      </c>
-      <c r="B64">
-        <v>0</v>
-      </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>92</v>
-      </c>
-      <c r="B65">
-        <v>208147</v>
-      </c>
-      <c r="C65">
         <v>1.6309807275869539</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>302</v>
-      </c>
-      <c r="B66">
-        <v>0</v>
-      </c>
-      <c r="C66">
-        <v>0</v>
+      <c r="D38" t="s">
+        <v>337</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D38" xr:uid="{F277552C-3113-4238-9DBA-0B13DDB12463}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>